--- a/pages/GenI-Lab-Use-Case-Compendium.xlsx
+++ b/pages/GenI-Lab-Use-Case-Compendium.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernandokoch/GDrive/dev/genilab-fau.github.io/pages/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernandokoch/Library/CloudStorage/GoogleDrive-fernandoluizkoch.backup@gmail.com/My Drive/dev/genilab-fau.github.io/pages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA41849-423C-4A47-BD2A-F71ECC0E503F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AFDC17-4A78-E640-A22C-B8166B3E38DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="500" windowWidth="39600" windowHeight="27880" activeTab="1" xr2:uid="{D5174C6E-313D-1747-B52E-24DBB51CBC26}"/>
+    <workbookView xWindow="5860" yWindow="760" windowWidth="25900" windowHeight="18360" xr2:uid="{D5174C6E-313D-1747-B52E-24DBB51CBC26}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
     <sheet name="Compendium" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Compendium!$A$14:$H$14</definedName>
+    <definedName name="Complete_GenAI_Media___Publishing_Solutions" localSheetId="2">Sheet1!$E$1:$K$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,6 +39,24 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{77F993C8-4A80-3043-9982-BCCC7C776193}" name="Complete_GenAI_Media___Publishing_Solutions" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/fernandokoch/Desktop/Complete_GenAI_Media___Publishing_Solutions.csv" tab="0" comma="1">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField type="text"/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
@@ -62,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="650">
   <si>
     <t>Title</t>
   </si>
@@ -556,9 +576,6 @@
     <t xml:space="preserve">GenAI Techniques </t>
   </si>
   <si>
-    <t>http://generativeintelligencelab.ai/EXERCISES.md</t>
-  </si>
-  <si>
     <t xml:space="preserve">Documentation: </t>
   </si>
   <si>
@@ -571,9 +588,6 @@
     <t>USE CASES</t>
   </si>
   <si>
-    <t>http://generativeintelligencelab.ai/JOIN.md</t>
-  </si>
-  <si>
     <t>Contributing:</t>
   </si>
   <si>
@@ -1130,6 +1144,894 @@
   </si>
   <si>
     <t>RETAIL</t>
+  </si>
+  <si>
+    <t>http://generativeintelligencelab.ai/EXERCISES.html</t>
+  </si>
+  <si>
+    <t>http://generativeintelligencelab.ai/JOIN.html</t>
+  </si>
+  <si>
+    <t>Story/Narrative Co-Creator</t>
+  </si>
+  <si>
+    <t>Helps developers and players collaboratively build game storylines through prompt-guided ideation and memory tracking.</t>
+  </si>
+  <si>
+    <t>Users co-create a story with the bot through iterative messages.</t>
+  </si>
+  <si>
+    <t>prompt templating; session-based memory; content generation</t>
+  </si>
+  <si>
+    <t>design narrative templates; configure memory tracking; tune generation settings</t>
+  </si>
+  <si>
+    <t>Game Mechanic Explainer</t>
+  </si>
+  <si>
+    <t>Breaks down game rules or mechanics for players using context-aware explanations based on input or linked documentation.</t>
+  </si>
+  <si>
+    <t>User queries the bot about a specific game mechanic.</t>
+  </si>
+  <si>
+    <t>prompt augmentation; RAG; classification</t>
+  </si>
+  <si>
+    <t>link external documentation; create mechanic templates; fine-tune RAG retrieval</t>
+  </si>
+  <si>
+    <t>Community Highlight Summarizer</t>
+  </si>
+  <si>
+    <t>Summarizes key moments from community discussions, livestreams, or forums.</t>
+  </si>
+  <si>
+    <t>Bot scans external sources and posts daily/weekly summaries.</t>
+  </si>
+  <si>
+    <t>summarization; prompt templating; RAG</t>
+  </si>
+  <si>
+    <t>ingest external content; design summarization prompts; configure cron-like triggers</t>
+  </si>
+  <si>
+    <t>Player Sentiment Analyzer</t>
+  </si>
+  <si>
+    <t>Analyzes community sentiment on updates, characters, or events.</t>
+  </si>
+  <si>
+    <t>Bot monitors chats and forums, then visualizes trends.</t>
+  </si>
+  <si>
+    <t>sentiment analysis; session memory; classification</t>
+  </si>
+  <si>
+    <t>connect data feeds; run sentiment models; build trend dashboards</t>
+  </si>
+  <si>
+    <t>Bug Report Extractor</t>
+  </si>
+  <si>
+    <t>Parses community messages and support tickets to extract structured bug reports.</t>
+  </si>
+  <si>
+    <t>Bot listens to messages and flags relevant bug information.</t>
+  </si>
+  <si>
+    <t>information extraction; NER; prompt augmentation</t>
+  </si>
+  <si>
+    <t>train NER model on bug contexts; define extraction format; monitor for trigger words</t>
+  </si>
+  <si>
+    <t>Lore Quiz Generator</t>
+  </si>
+  <si>
+    <t>Creates custom quizzes based on game lore to engage players.</t>
+  </si>
+  <si>
+    <t>User requests a lore quiz from the bot.</t>
+  </si>
+  <si>
+    <t>content generation; classification; prompt templating</t>
+  </si>
+  <si>
+    <t>define lore sources; design quiz formats; configure question variation</t>
+  </si>
+  <si>
+    <t>Streamer Clip Summarizer</t>
+  </si>
+  <si>
+    <t>Summarizes notable gameplay moments from stream clips using external API input.</t>
+  </si>
+  <si>
+    <t>User links a clip; bot returns a summary and highlight.</t>
+  </si>
+  <si>
+    <t>summarization; RAG; external API integration</t>
+  </si>
+  <si>
+    <t>link to clip APIs; parse transcripts; summarize notable action</t>
+  </si>
+  <si>
+    <t>Game Patch Note Simplifier</t>
+  </si>
+  <si>
+    <t>Turns patch notes into easy-to-understand summaries for casual players.</t>
+  </si>
+  <si>
+    <t>Bot auto-posts simplified summaries of patch notes.</t>
+  </si>
+  <si>
+    <t>summarization; rewriting; prompt templating</t>
+  </si>
+  <si>
+    <t>fetch patch notes; design simplification prompts; schedule summarization</t>
+  </si>
+  <si>
+    <t>Character Backstory Generator</t>
+  </si>
+  <si>
+    <t>Generates rich, lore-aligned backstories for player-created characters.</t>
+  </si>
+  <si>
+    <t>User provides a character seed or template.</t>
+  </si>
+  <si>
+    <t>content generation; prompt templating; memory</t>
+  </si>
+  <si>
+    <t>build backstory templates; configure generation params; integrate lore memory</t>
+  </si>
+  <si>
+    <t>Toxicity Detector</t>
+  </si>
+  <si>
+    <t>Flags potentially toxic messages in Discord channels and suggests reframing.</t>
+  </si>
+  <si>
+    <t>Bot monitors live chats and sends moderation alerts or reframes.</t>
+  </si>
+  <si>
+    <t>classification; sentiment analysis; rewriting</t>
+  </si>
+  <si>
+    <t>fine-tune toxicity models; define thresholds; enable rewrite suggestions</t>
+  </si>
+  <si>
+    <t>Event Hypothesis Generator</t>
+  </si>
+  <si>
+    <t>Suggests possible in-game events based on lore, player trends, or prior seasonal events.</t>
+  </si>
+  <si>
+    <t>Bot offers ideation prompts in community event planning channels.</t>
+  </si>
+  <si>
+    <t>hypothesis generation; prompt augmentation; session memory</t>
+  </si>
+  <si>
+    <t>analyze past events; integrate lore context; generate seasonal variations</t>
+  </si>
+  <si>
+    <t>Player Feedback Synthesizer</t>
+  </si>
+  <si>
+    <t>Consolidates feedback from multiple channels into digestible insights for developers.</t>
+  </si>
+  <si>
+    <t>Bot aggregates feedback and sends summaries with trends.</t>
+  </si>
+  <si>
+    <t>summarization; sentiment analysis; insight generation</t>
+  </si>
+  <si>
+    <t>connect feedback channels; cluster feedback types; summarize key findings</t>
+  </si>
+  <si>
+    <t>Translation &amp; Localization Helper</t>
+  </si>
+  <si>
+    <t>Translates in-game text and lore snippets for community translators with cultural sensitivity.</t>
+  </si>
+  <si>
+    <t>User submits text and selects target language.</t>
+  </si>
+  <si>
+    <t>translation; prompt templating; rewriting</t>
+  </si>
+  <si>
+    <t>define translation prompts; integrate locale databases; enable custom tone settings</t>
+  </si>
+  <si>
+    <t>Lore Consistency Checker</t>
+  </si>
+  <si>
+    <t>Checks user-generated content for consistency with official lore.</t>
+  </si>
+  <si>
+    <t>User submits a story or text; bot checks alignment with lore canon.</t>
+  </si>
+  <si>
+    <t>retrieval-augmented generation; classification; information extraction</t>
+  </si>
+  <si>
+    <t>build lore knowledge base; define consistency prompts; classify canonical conflicts</t>
+  </si>
+  <si>
+    <t>AI Dungeon Master Assistant</t>
+  </si>
+  <si>
+    <t>Supports tabletop gaming sessions with adaptive storytelling and on-the-fly character development.</t>
+  </si>
+  <si>
+    <t>Bot interacts in real-time during RPG sessions.</t>
+  </si>
+  <si>
+    <t>session-based memory; content generation; prompt augmentation</t>
+  </si>
+  <si>
+    <t>train on RPG content; define character/event templates; implement adaptive memory</t>
+  </si>
+  <si>
+    <t>Strategy Explainer Bot</t>
+  </si>
+  <si>
+    <t>Explains popular competitive strategies based on current meta and player performance data.</t>
+  </si>
+  <si>
+    <t>User asks for strategy advice or clarification.</t>
+  </si>
+  <si>
+    <t>prompt templating; RAG; summarization</t>
+  </si>
+  <si>
+    <t>pull competitive stats; build strategy index; respond to meta queries</t>
+  </si>
+  <si>
+    <t>Voice Chat Sentiment Logger</t>
+  </si>
+  <si>
+    <t>Analyzes voice chat logs for mood tracking and community safety.</t>
+  </si>
+  <si>
+    <t>Bot processes audio transcripts and posts sentiment dashboards.</t>
+  </si>
+  <si>
+    <t>sentiment analysis; classification; external API integration</t>
+  </si>
+  <si>
+    <t>transcribe audio; run sentiment model; visualize data trends</t>
+  </si>
+  <si>
+    <t>Streamer Content Recommender</t>
+  </si>
+  <si>
+    <t>Recommends highlights and themes streamers should clip and title based on engagement analysis.</t>
+  </si>
+  <si>
+    <t>Streamer uploads a video or link; bot recommends content cuts.</t>
+  </si>
+  <si>
+    <t>insight generation; summarization; sentiment analysis</t>
+  </si>
+  <si>
+    <t>analyze engagement data; define clip metrics; summarize top moments</t>
+  </si>
+  <si>
+    <t>AI Character Dialogue Enhancer</t>
+  </si>
+  <si>
+    <t>Improves the tone, style, and immersion of dialogue for in-game characters.</t>
+  </si>
+  <si>
+    <t>Developer submits character lines for tone/style enhancement.</t>
+  </si>
+  <si>
+    <t>text rewriting; content generation; prompt templating</t>
+  </si>
+  <si>
+    <t>define style guides; tune tone prompts; support creative variants</t>
+  </si>
+  <si>
+    <t>Game Design Ideation Assistant</t>
+  </si>
+  <si>
+    <t>Supports brainstorming of new mechanics, maps, or game loops.</t>
+  </si>
+  <si>
+    <t>Developer prompts bot with themes or constraints.</t>
+  </si>
+  <si>
+    <t>ideation; hypothesis generation; prompt templating</t>
+  </si>
+  <si>
+    <t>build ideation templates; link game theory models; generate alternatives</t>
+  </si>
+  <si>
+    <t>Quest Generator</t>
+  </si>
+  <si>
+    <t>Creates custom quests for community-created content or RPG extensions.</t>
+  </si>
+  <si>
+    <t>User inputs theme or character, bot returns a quest.</t>
+  </si>
+  <si>
+    <t>content generation; prompt templating; rewriting</t>
+  </si>
+  <si>
+    <t>create quest templates; define NPCs; configure world-state options</t>
+  </si>
+  <si>
+    <t>Role Assignment Recommender</t>
+  </si>
+  <si>
+    <t>Suggests optimal roles in multiplayer games based on past play styles and stats.</t>
+  </si>
+  <si>
+    <t>User requests role recommendations; bot reviews history.</t>
+  </si>
+  <si>
+    <t>classification; retrieval; insight generation</t>
+  </si>
+  <si>
+    <t>collect player data; cluster behavior; rank suitable roles</t>
+  </si>
+  <si>
+    <t>Twitch Chat Analyzer</t>
+  </si>
+  <si>
+    <t>Identifies trending reactions and clip-worthy moments during live streams.</t>
+  </si>
+  <si>
+    <t>Bot monitors chat and posts trending phrases or moments.</t>
+  </si>
+  <si>
+    <t>NER; sentiment analysis; insight generation</t>
+  </si>
+  <si>
+    <t>stream chat input; analyze spikes in reactions; extract named moments</t>
+  </si>
+  <si>
+    <t>Narrative Tone Balancer</t>
+  </si>
+  <si>
+    <t>Adjusts writing style of stories or updates to align with target tone.</t>
+  </si>
+  <si>
+    <t>User submits text with target tone.</t>
+  </si>
+  <si>
+    <t>text rewriting; classification; prompt templating</t>
+  </si>
+  <si>
+    <t>define tone guidelines; train tone classifier; rewrite for consistency</t>
+  </si>
+  <si>
+    <t>Content Moderation Assistant</t>
+  </si>
+  <si>
+    <t>Detects and summarizes moderation concerns within Discord or forums.</t>
+  </si>
+  <si>
+    <t>Bot posts alerts with summaries for mod review.</t>
+  </si>
+  <si>
+    <t>classification; sentiment analysis; summarization</t>
+  </si>
+  <si>
+    <t>monitor content streams; flag violations; summarize issues</t>
+  </si>
+  <si>
+    <t>Esports Match Recapper</t>
+  </si>
+  <si>
+    <t>Generates summaries and highlight reels of esports matches.</t>
+  </si>
+  <si>
+    <t>User submits match data or link; bot replies with recap.</t>
+  </si>
+  <si>
+    <t>summarization; RAG; insight generation</t>
+  </si>
+  <si>
+    <t>collect match data; parse results; synthesize recap</t>
+  </si>
+  <si>
+    <t>Cosmetic Item Ideator</t>
+  </si>
+  <si>
+    <t>Suggests names and themes for in-game cosmetic items.</t>
+  </si>
+  <si>
+    <t>User requests a theme; bot returns item ideas.</t>
+  </si>
+  <si>
+    <t>ideation; content generation; prompt templating</t>
+  </si>
+  <si>
+    <t>define aesthetic inputs; build naming templates; return variants</t>
+  </si>
+  <si>
+    <t>Fandom Wiki Auto-Updater</t>
+  </si>
+  <si>
+    <t>Generates updates for fan wikis based on game updates or lore expansions.</t>
+  </si>
+  <si>
+    <t>Bot listens for patch or lore updates, writes formatted entries.</t>
+  </si>
+  <si>
+    <t>summarization; information extraction; RAG</t>
+  </si>
+  <si>
+    <t>ingest update streams; map to wiki schema; format entries</t>
+  </si>
+  <si>
+    <t>Virtual Convention Companion</t>
+  </si>
+  <si>
+    <t>Assists in navigating digital gaming events, panels, or demos.</t>
+  </si>
+  <si>
+    <t>User queries schedule or event content.</t>
+  </si>
+  <si>
+    <t>retrieval; summarization; classification</t>
+  </si>
+  <si>
+    <t>index event schedule; enable question answering; guide based on interest</t>
+  </si>
+  <si>
+    <t>GAMING</t>
+  </si>
+  <si>
+    <t>Smart Article Summarizer</t>
+  </si>
+  <si>
+    <t>Generates concise summaries of long-form articles for editorial teams.</t>
+  </si>
+  <si>
+    <t>User submits article link or text, bot returns summary.</t>
+  </si>
+  <si>
+    <t>Summarization; Prompt templating; Session-based memory</t>
+  </si>
+  <si>
+    <t>Extract article text; Apply summarization model; Configure prompt template; Return summary</t>
+  </si>
+  <si>
+    <t>Context-Aware Headline Optimizer</t>
+  </si>
+  <si>
+    <t>Optimizes article headlines based on audience engagement metrics.</t>
+  </si>
+  <si>
+    <t>User submits headline and article; bot suggests alternatives.</t>
+  </si>
+  <si>
+    <t>Text Rewriting; Insight Generation; External API integration</t>
+  </si>
+  <si>
+    <t>Analyze original headline; Enrich with API engagement data; Generate alternatives; Output refined headlines</t>
+  </si>
+  <si>
+    <t>Emotion-Driven Reader Feedback Analyzer</t>
+  </si>
+  <si>
+    <t>Analyzes reader comments and categorizes emotional tone and intent.</t>
+  </si>
+  <si>
+    <t>User submits a batch of comments; bot returns insights dashboard.</t>
+  </si>
+  <si>
+    <t>Sentiment &amp; Emotion Analysis; Classification; Prompt augmentation</t>
+  </si>
+  <si>
+    <t>Collect reader feedback; Run sentiment model; Group by emotion; Visualize insights</t>
+  </si>
+  <si>
+    <t>Trend-to-Content Ideation Engine</t>
+  </si>
+  <si>
+    <t>Uses trending topics to generate content outlines for journalists.</t>
+  </si>
+  <si>
+    <t>Users input or sync trend data; bot returns suggested story angles.</t>
+  </si>
+  <si>
+    <t>Hypothesis Generation; RAG; Prompt templating; External API integration</t>
+  </si>
+  <si>
+    <t>Fetch trend data; Enrich prompt with context; Generate ideas; Iterate via session memory</t>
+  </si>
+  <si>
+    <t>Automated Newsletter Composer</t>
+  </si>
+  <si>
+    <t>Creates draft newsletters from selected articles and summaries.</t>
+  </si>
+  <si>
+    <t>User selects articles; bot returns formatted newsletter draft.</t>
+  </si>
+  <si>
+    <t>Content Generation; Summarization; Prompt templating</t>
+  </si>
+  <si>
+    <t>Gather input articles; Summarize content; Generate newsletter template; Return formatted draft</t>
+  </si>
+  <si>
+    <t>Voice-to-Article Generator</t>
+  </si>
+  <si>
+    <t>Turns audio recordings or voice notes into publish-ready articles.</t>
+  </si>
+  <si>
+    <t>User uploads voice file; bot returns structured article.</t>
+  </si>
+  <si>
+    <t>Speech-to-Text; Content Generation; Structuring; Prompt augmentation</t>
+  </si>
+  <si>
+    <t>Transcribe audio; Analyze structure; Generate content draft; Allow for refinements</t>
+  </si>
+  <si>
+    <t>Title &amp; Tag Classifier</t>
+  </si>
+  <si>
+    <t>Suggests best categories and tags for newly written content.</t>
+  </si>
+  <si>
+    <t>User inputs article; bot returns category and tag suggestions.</t>
+  </si>
+  <si>
+    <t>Classification; NER; Prompt templating</t>
+  </si>
+  <si>
+    <t>Parse article; Classify based on trained data; Suggest tags</t>
+  </si>
+  <si>
+    <t>Interactive Editorial Assistant</t>
+  </si>
+  <si>
+    <t>Provides real-time editorial feedback and enhancement suggestions.</t>
+  </si>
+  <si>
+    <t>User pastes draft; bot suggests edits iteratively.</t>
+  </si>
+  <si>
+    <t>Text Rewriting; Session-based memory; Prompt augmentation</t>
+  </si>
+  <si>
+    <t>Accept draft; Parse structure and tone; Recommend improvements; Iterate with memory</t>
+  </si>
+  <si>
+    <t>Audience Persona Generator</t>
+  </si>
+  <si>
+    <t>Generates audience personas based on content interaction patterns.</t>
+  </si>
+  <si>
+    <t>User uploads analytics; bot returns segmented personas.</t>
+  </si>
+  <si>
+    <t>Insight Generation; Analytics; External API integration</t>
+  </si>
+  <si>
+    <t>Ingest engagement data; Cluster by behavior; Describe persona traits</t>
+  </si>
+  <si>
+    <t>Fact-Check Companion</t>
+  </si>
+  <si>
+    <t>Assists in verifying claims within articles using live knowledge sources.</t>
+  </si>
+  <si>
+    <t>User highlights claims; bot checks against current facts.</t>
+  </si>
+  <si>
+    <t>RAG; Information Extraction; External API integration</t>
+  </si>
+  <si>
+    <t>Identify claim; Query fact database; Return verification; Cite source</t>
+  </si>
+  <si>
+    <t>Script-to-Article Converter</t>
+  </si>
+  <si>
+    <t>Converts video or podcast scripts into editorial-style articles.</t>
+  </si>
+  <si>
+    <t>User uploads script; bot generates article version.</t>
+  </si>
+  <si>
+    <t>Content Generation; Structuring; Prompt templating</t>
+  </si>
+  <si>
+    <t>Parse script format; Generate prose structure; Output draft</t>
+  </si>
+  <si>
+    <t>Comment Sentiment Heatmap</t>
+  </si>
+  <si>
+    <t>Visualizes sentiment trends across article comments in real-time.</t>
+  </si>
+  <si>
+    <t>User selects article; bot analyzes and visualizes comment sentiment.</t>
+  </si>
+  <si>
+    <t>Sentiment Analysis; Analytics; Prompt augmentation</t>
+  </si>
+  <si>
+    <t>Fetch comments; Run sentiment classifier; Aggregate data; Generate heatmap</t>
+  </si>
+  <si>
+    <t>AI Co-writer for Blogs</t>
+  </si>
+  <si>
+    <t>Collaboratively writes blogs based on prompts and themes.</t>
+  </si>
+  <si>
+    <t>User provides theme; bot co-writes paragraphs iteratively.</t>
+  </si>
+  <si>
+    <t>Content Generation; Session memory; Prompt augmentation</t>
+  </si>
+  <si>
+    <t>Accept theme; Generate intro; Refine with user input; Build body</t>
+  </si>
+  <si>
+    <t>Multilingual Content Translator</t>
+  </si>
+  <si>
+    <t>Translates content with context-aware tone adaptation.</t>
+  </si>
+  <si>
+    <t>User submits article; bot returns translated draft.</t>
+  </si>
+  <si>
+    <t>Translation; Text Rewriting; Prompt templating</t>
+  </si>
+  <si>
+    <t>Detect language; Translate; Adapt tone; Return final version</t>
+  </si>
+  <si>
+    <t>Data Journalism Storybuilder</t>
+  </si>
+  <si>
+    <t>Generates story narratives from uploaded datasets.</t>
+  </si>
+  <si>
+    <t>User uploads data; bot generates contextual article.</t>
+  </si>
+  <si>
+    <t>Insight Generation; RAG; Prompt augmentation</t>
+  </si>
+  <si>
+    <t>Analyze dataset; Extract key patterns; Generate narrative structure</t>
+  </si>
+  <si>
+    <t>SEO Enhancer Bot</t>
+  </si>
+  <si>
+    <t>Suggests keyword optimization for content visibility.</t>
+  </si>
+  <si>
+    <t>User submits article; bot recommends keyword improvements.</t>
+  </si>
+  <si>
+    <t>Analyze content; Compare with SEO data; Suggest keyword additions</t>
+  </si>
+  <si>
+    <t>Quote Extractor &amp; Verifier</t>
+  </si>
+  <si>
+    <t>Extracts and validates quotes from interviews and articles.</t>
+  </si>
+  <si>
+    <t>User uploads interview; bot extracts and verifies quotes.</t>
+  </si>
+  <si>
+    <t>Information Extraction; RAG; NER</t>
+  </si>
+  <si>
+    <t>Parse transcript; Identify quotes; Validate sources</t>
+  </si>
+  <si>
+    <t>Headline A/B Testing Assistant</t>
+  </si>
+  <si>
+    <t>Generates headline variations and tests them in real time.</t>
+  </si>
+  <si>
+    <t>User inputs original headline; bot generates and tracks variants.</t>
+  </si>
+  <si>
+    <t>Text Rewriting; Analytics; Prompt augmentation</t>
+  </si>
+  <si>
+    <t>Create variants; Track engagement via API; Recommend best</t>
+  </si>
+  <si>
+    <t>Interview Assistant Bot</t>
+  </si>
+  <si>
+    <t>Helps journalists prepare questions based on subject background.</t>
+  </si>
+  <si>
+    <t>User inputs subject; bot generates tailored interview questions.</t>
+  </si>
+  <si>
+    <t>RAG; Hypothesis Generation; Prompt templating</t>
+  </si>
+  <si>
+    <t>Fetch bio/context; Generate questions; Organize by topic</t>
+  </si>
+  <si>
+    <t>Real-time Article Rewriter</t>
+  </si>
+  <si>
+    <t>Provides live rewording suggestions for readability and tone.</t>
+  </si>
+  <si>
+    <t>User writes article; bot suggests alternative phrasing live.</t>
+  </si>
+  <si>
+    <t>Text Rewriting; Session memory; Prompt augmentation</t>
+  </si>
+  <si>
+    <t>Track edits; Suggest rewrites; Adapt to tone preference</t>
+  </si>
+  <si>
+    <t>Event-to-Article Generator</t>
+  </si>
+  <si>
+    <t>Generates articles based on structured event data feeds.</t>
+  </si>
+  <si>
+    <t>User links event API; bot generates article per update.</t>
+  </si>
+  <si>
+    <t>RAG; Content Generation; Structuring</t>
+  </si>
+  <si>
+    <t>Sync API; Structure event summary; Generate article</t>
+  </si>
+  <si>
+    <t>Media Rights Classifier</t>
+  </si>
+  <si>
+    <t>Tags and categorizes content by copyright/license rules.</t>
+  </si>
+  <si>
+    <t>User uploads content; bot classifies media rights.</t>
+  </si>
+  <si>
+    <t>Classification; Information Extraction; NER</t>
+  </si>
+  <si>
+    <t>Parse file; Classify rights; Return license tag</t>
+  </si>
+  <si>
+    <t>Persona-Based Content Rewriter</t>
+  </si>
+  <si>
+    <t>Rewrites content tailored to specific audience personas.</t>
+  </si>
+  <si>
+    <t>User selects persona; bot rewrites article accordingly.</t>
+  </si>
+  <si>
+    <t>Text Rewriting; Prompt templating; Sentiment Analysis</t>
+  </si>
+  <si>
+    <t>Load persona style; Rewrite content; Compare outputs</t>
+  </si>
+  <si>
+    <t>Legacy Archive Summarizer</t>
+  </si>
+  <si>
+    <t>Summarizes historical archive content for reuse or republishing.</t>
+  </si>
+  <si>
+    <t>User uploads archive; bot generates contextual summary.</t>
+  </si>
+  <si>
+    <t>Summarization; Information Extraction; Prompt augmentation</t>
+  </si>
+  <si>
+    <t>Parse archive text; Extract highlights; Summarize with context</t>
+  </si>
+  <si>
+    <t>Public Sentiment Tracker</t>
+  </si>
+  <si>
+    <t>Tracks sentiment shifts on topics across social media APIs.</t>
+  </si>
+  <si>
+    <t>User defines topic; bot returns ongoing sentiment timeline.</t>
+  </si>
+  <si>
+    <t>Sentiment Analysis; RAG; External API integration</t>
+  </si>
+  <si>
+    <t>Track keywords; Run sentiment model; Plot over time</t>
+  </si>
+  <si>
+    <t>Press Release Generator</t>
+  </si>
+  <si>
+    <t>Creates press releases from event or product details.</t>
+  </si>
+  <si>
+    <t>User submits event details; bot generates press release.</t>
+  </si>
+  <si>
+    <t>Template fill-in; Tone adjustment; Output release</t>
+  </si>
+  <si>
+    <t>Audience Reaction Simulator</t>
+  </si>
+  <si>
+    <t>Simulates how different audience segments might respond to content.</t>
+  </si>
+  <si>
+    <t>User uploads article; bot simulates persona reactions.</t>
+  </si>
+  <si>
+    <t>Classification; Sentiment Analysis; Persona modeling</t>
+  </si>
+  <si>
+    <t>Define personas; Analyze article tone; Predict reactions</t>
+  </si>
+  <si>
+    <t>AI-Powered Caption Writer</t>
+  </si>
+  <si>
+    <t>Writes engaging captions for articles or social posts.</t>
+  </si>
+  <si>
+    <t>User inputs image/article; bot generates captions.</t>
+  </si>
+  <si>
+    <t>Content Generation; Text Rewriting; Prompt templating</t>
+  </si>
+  <si>
+    <t>Analyze content; Generate multiple captions; Select best</t>
+  </si>
+  <si>
+    <t>Visual Content Tagger</t>
+  </si>
+  <si>
+    <t>Automatically tags images or videos with metadata.</t>
+  </si>
+  <si>
+    <t>User uploads visual; bot tags based on content.</t>
+  </si>
+  <si>
+    <t>NER; Classification; External API integration</t>
+  </si>
+  <si>
+    <t>Extract visual features; Classify elements; Assign tags</t>
+  </si>
+  <si>
+    <t>Tone Harmonizer for Collaborations</t>
+  </si>
+  <si>
+    <t>Aligns tone and voice across multi-author publications.</t>
+  </si>
+  <si>
+    <t>User submits sections; bot harmonizes tone.</t>
+  </si>
+  <si>
+    <t>Compare tone across sections; Suggest edits; Return unified draft</t>
+  </si>
+  <si>
+    <t>MEDIA</t>
   </si>
 </sst>
 </file>
@@ -1288,11 +2190,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1358,6 +2255,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1525,6 +2425,189 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1580,9 +2663,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Dashboard!$A$109:$A$111</c:f>
+              <c:f>Dashboard!$A$109:$A$120</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>EDUCATION</c:v>
                 </c:pt>
@@ -1592,15 +2675,21 @@
                 <c:pt idx="2">
                   <c:v>RETAIL</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>GAMING</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MEDIA</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$B$109:$B$111</c:f>
+              <c:f>Dashboard!$B$109:$B$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>30</c:v>
                 </c:pt>
@@ -1609,6 +2698,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1904,13 +2999,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2241,16 +3336,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2422,9 +3517,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Dashboard!$A$109:$A$111</c:f>
+              <c:f>Dashboard!$A$109:$A$113</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>EDUCATION</c:v>
                 </c:pt>
@@ -2434,15 +3529,21 @@
                 <c:pt idx="2">
                   <c:v>RETAIL</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>GAMING</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MEDIA</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$C$109:$C$111</c:f>
+              <c:f>Dashboard!$C$109:$C$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>21</c:v>
                 </c:pt>
@@ -2451,6 +3552,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2487,9 +3594,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Dashboard!$A$109:$A$111</c:f>
+              <c:f>Dashboard!$A$109:$A$113</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>EDUCATION</c:v>
                 </c:pt>
@@ -2498,6 +3605,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>RETAIL</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GAMING</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MEDIA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2552,9 +3665,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Dashboard!$A$109:$A$111</c:f>
+              <c:f>Dashboard!$A$109:$A$113</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>EDUCATION</c:v>
                 </c:pt>
@@ -2563,6 +3676,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>RETAIL</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GAMING</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MEDIA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2614,9 +3733,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Dashboard!$A$109:$A$111</c:f>
+              <c:f>Dashboard!$A$109:$A$113</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>EDUCATION</c:v>
                 </c:pt>
@@ -2625,6 +3744,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>RETAIL</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GAMING</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MEDIA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2958,9 +4083,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Dashboard!$A$109:$A$111</c:f>
+              <c:f>Dashboard!$A$109:$A$113</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>EDUCATION</c:v>
                 </c:pt>
@@ -2970,15 +4095,21 @@
                 <c:pt idx="2">
                   <c:v>RETAIL</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>GAMING</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MEDIA</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$G$109:$G$111</c:f>
+              <c:f>Dashboard!$G$109:$G$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2987,6 +4118,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3023,9 +4160,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Dashboard!$A$109:$A$111</c:f>
+              <c:f>Dashboard!$A$109:$A$113</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>EDUCATION</c:v>
                 </c:pt>
@@ -3034,6 +4171,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>RETAIL</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GAMING</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MEDIA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3088,9 +4231,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Dashboard!$A$109:$A$111</c:f>
+              <c:f>Dashboard!$A$109:$A$113</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>EDUCATION</c:v>
                 </c:pt>
@@ -3099,6 +4242,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>RETAIL</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GAMING</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MEDIA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6409,6 +7558,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Complete_GenAI_Media___Publishing_Solutions" connectionId="1" xr16:uid="{488DBB7F-FC27-B24E-9301-45856858EBFB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6726,10 +7879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8359CF31-A66F-1941-A08C-AC454B9868A1}">
-  <dimension ref="A9:I111"/>
+  <dimension ref="A9:I140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G113" sqref="A100:G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6737,382 +7890,1096 @@
     <col min="1" max="8" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="B14" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" cm="1">
-        <f t="array" ref="A15">COUNTA(_xlfn.UNIQUE(_xlfn._xlws.FILTER(Compendium!A15:A394, Compendium!A15:A394&lt;&gt;"")))</f>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" cm="1">
+        <f t="array" ref="A15">COUNTA(_xlfn.UNIQUE(_xlfn._xlws.FILTER(Compendium!A15:A393, Compendium!A15:A393&lt;&gt;"")))</f>
+        <v>5</v>
+      </c>
+      <c r="B15" s="27">
+        <f>COUNTA(Compendium!B15:B393)</f>
+        <v>125</v>
+      </c>
+      <c r="C15" s="29" cm="1">
+        <f t="array" ref="C15">COUNTA(_xlfn.UNIQUE(TRIM(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";", TRUE, _xlfn._xlws.FILTER(Compendium!G15:G393, Compendium!G15:G393&lt;&gt;"" )), ";"))))</f>
+        <v>406</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="33"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="33"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="33"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="33"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="33"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="33"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="33"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="33"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="33"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="33"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="33"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="33"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="33"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="33"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="33"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="33"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="33"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="33"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="33"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="33"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="33"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="33"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="33"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="33"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="33"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="33"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="33"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="33"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="33"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="33"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="33"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="32" t="str" cm="1">
+        <f t="array" ref="A100:A102">_xlfn.UNIQUE(_xlfn._xlws.FILTER(Compendium!$E$15:$E$395, Compendium!$E$15:$E$395&lt;&gt;""))</f>
+        <v>Medium</v>
+      </c>
+      <c r="B100" s="32">
+        <f>COUNTIF(Compendium!$E$15:$E$395, $A100)</f>
+        <v>64</v>
+      </c>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="32"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="32" t="str">
+        <v>High</v>
+      </c>
+      <c r="B101" s="32">
+        <f>COUNTIF(Compendium!$E$15:$E$395, $A101)</f>
+        <v>45</v>
+      </c>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="32"/>
+      <c r="I101" s="32"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="32" t="str">
+        <v>Low</v>
+      </c>
+      <c r="B102" s="32">
+        <f>COUNTIF(Compendium!$E$15:$E$395, $A102)</f>
+        <v>16</v>
+      </c>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="32"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="32"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="32"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="32" t="str" cm="1">
+        <f t="array" ref="A104:A107">_xlfn.UNIQUE(_xlfn._xlws.FILTER(Compendium!$D$15:$D$395, Compendium!$D$15:$D$395&lt;&gt;""))</f>
+        <v>1-to-1</v>
+      </c>
+      <c r="B104" s="32">
+        <f>COUNTIF(Compendium!$D$15:$D$395, $A104)</f>
+        <v>83</v>
+      </c>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="32" t="str">
+        <v>Collective Intelligence</v>
+      </c>
+      <c r="B105" s="32">
+        <f>COUNTIF(Compendium!$D$15:$D$395, $A105)</f>
+        <v>14</v>
+      </c>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="32"/>
+      <c r="I105" s="32"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="32" t="str">
+        <v>1-to-N</v>
+      </c>
+      <c r="B106" s="32">
+        <f>COUNTIF(Compendium!$D$15:$D$395, $A106)</f>
+        <v>19</v>
+      </c>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="32"/>
+      <c r="I106" s="32"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="32" t="str">
+        <v>Social Intelligence</v>
+      </c>
+      <c r="B107" s="32">
+        <f>COUNTIF(Compendium!$D$15:$D$395, $A107)</f>
+        <v>9</v>
+      </c>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="32"/>
+      <c r="I107" s="32"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="32"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D108" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="E108" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F108" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G108" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="H108" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I108" s="32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="32" t="str" cm="1">
+        <f t="array" ref="A109:A113">_xlfn.UNIQUE(_xlfn._xlws.FILTER(Compendium!$A$15:$A$395, Compendium!$A$15:$A$395&lt;&gt;""))</f>
+        <v>EDUCATION</v>
+      </c>
+      <c r="B109" s="32">
+        <f>COUNTIF(Compendium!$A$15:$A$395, $A109)</f>
+        <v>30</v>
+      </c>
+      <c r="C109" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A109, Compendium!$D$15:$D$399,C$108)</f>
+        <v>21</v>
+      </c>
+      <c r="D109" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A109, Compendium!$D$15:$D$399,D$108)</f>
         <v>3</v>
       </c>
-      <c r="B15" s="30">
-        <f>COUNTA(Compendium!B15:B394)</f>
-        <v>66</v>
-      </c>
-      <c r="C15" s="32" cm="1">
-        <f t="array" ref="C15">COUNTA(_xlfn.UNIQUE(TRIM(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(";", TRUE, _xlfn._xlws.FILTER(Compendium!G15:G394, Compendium!G15:G394&lt;&gt;"" )), ";"))))</f>
-        <v>227</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" t="str" cm="1">
-        <f t="array" ref="A100:A102">_xlfn.UNIQUE(_xlfn._xlws.FILTER(Compendium!$E$15:$E$396, Compendium!$E$15:$E$396&lt;&gt;""))</f>
-        <v>Medium</v>
-      </c>
-      <c r="B100">
-        <f>COUNTIF(Compendium!$E$15:$E$396, $A100)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" t="str">
-        <v>High</v>
-      </c>
-      <c r="B101">
-        <f>COUNTIF(Compendium!$E$15:$E$396, $A101)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" t="str">
-        <v>Low</v>
-      </c>
-      <c r="B102">
-        <f>COUNTIF(Compendium!$E$15:$E$396, $A102)</f>
+      <c r="E109" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A109, Compendium!$D$15:$D$399,E$108)</f>
+        <v>3</v>
+      </c>
+      <c r="F109" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A109, Compendium!$D$15:$D$399,F$108)</f>
+        <v>3</v>
+      </c>
+      <c r="G109" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A109, Compendium!$E$15:$E$399,G$108)</f>
+        <v>1</v>
+      </c>
+      <c r="H109" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A109, Compendium!$E$15:$E$399,H$108)</f>
+        <v>20</v>
+      </c>
+      <c r="I109" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A109, Compendium!$E$15:$E$399,I$108)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="32" t="str">
+        <v>HEALTH</v>
+      </c>
+      <c r="B110" s="32">
+        <f>COUNTIF(Compendium!$A$15:$A$395, $A110)</f>
+        <v>20</v>
+      </c>
+      <c r="C110" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A110, Compendium!$D$15:$D$399,C$108)</f>
+        <v>18</v>
+      </c>
+      <c r="D110" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A110, Compendium!$D$15:$D$399,D$108)</f>
+        <v>0</v>
+      </c>
+      <c r="E110" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A110, Compendium!$D$15:$D$399,E$108)</f>
+        <v>1</v>
+      </c>
+      <c r="F110" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A110, Compendium!$D$15:$D$399,F$108)</f>
+        <v>1</v>
+      </c>
+      <c r="G110" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A110, Compendium!$E$15:$E$399,G$108)</f>
+        <v>4</v>
+      </c>
+      <c r="H110" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A110, Compendium!$E$15:$E$399,H$108)</f>
+        <v>10</v>
+      </c>
+      <c r="I110" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A110, Compendium!$E$15:$E$399,I$108)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="32" t="str">
+        <v>RETAIL</v>
+      </c>
+      <c r="B111" s="32">
+        <f>COUNTIF(Compendium!$A$15:$A$395, $A111)</f>
+        <v>16</v>
+      </c>
+      <c r="C111" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A111, Compendium!$D$15:$D$399,C$108)</f>
+        <v>6</v>
+      </c>
+      <c r="D111" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A111, Compendium!$D$15:$D$399,D$108)</f>
+        <v>6</v>
+      </c>
+      <c r="E111" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A111, Compendium!$D$15:$D$399,E$108)</f>
+        <v>4</v>
+      </c>
+      <c r="F111" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A111, Compendium!$D$15:$D$399,F$108)</f>
+        <v>0</v>
+      </c>
+      <c r="G111" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A111, Compendium!$E$15:$E$399,G$108)</f>
+        <v>2</v>
+      </c>
+      <c r="H111" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A111, Compendium!$E$15:$E$399,H$108)</f>
+        <v>6</v>
+      </c>
+      <c r="I111" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A111, Compendium!$E$15:$E$399,I$108)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="32" t="str">
+        <v>GAMING</v>
+      </c>
+      <c r="B112" s="32">
+        <f>COUNTIF(Compendium!$A$15:$A$395, $A112)</f>
+        <v>29</v>
+      </c>
+      <c r="C112" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A112, Compendium!$D$15:$D$399,C$108)</f>
+        <v>16</v>
+      </c>
+      <c r="D112" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A112, Compendium!$D$15:$D$399,D$108)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" t="str" cm="1">
-        <f t="array" ref="A104:A107">_xlfn.UNIQUE(_xlfn._xlws.FILTER(Compendium!$D$15:$D$396, Compendium!$D$15:$D$396&lt;&gt;""))</f>
-        <v>1-to-1</v>
-      </c>
-      <c r="B104">
-        <f>COUNTIF(Compendium!$D$15:$D$396, $A104)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" t="str">
-        <v>Collective Intelligence</v>
-      </c>
-      <c r="B105">
-        <f>COUNTIF(Compendium!$D$15:$D$396, $A105)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" t="str">
-        <v>1-to-N</v>
-      </c>
-      <c r="B106">
-        <f>COUNTIF(Compendium!$D$15:$D$396, $A106)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" t="str">
-        <v>Social Intelligence</v>
-      </c>
-      <c r="B107">
-        <f>COUNTIF(Compendium!$D$15:$D$396, $A107)</f>
+      <c r="E112" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A112, Compendium!$D$15:$D$399,E$108)</f>
+        <v>3</v>
+      </c>
+      <c r="F112" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A112, Compendium!$D$15:$D$399,F$108)</f>
+        <v>3</v>
+      </c>
+      <c r="G112" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A112, Compendium!$E$15:$E$399,G$108)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C108" t="s">
-        <v>159</v>
-      </c>
-      <c r="D108" t="s">
-        <v>273</v>
-      </c>
-      <c r="E108" t="s">
-        <v>80</v>
-      </c>
-      <c r="F108" t="s">
-        <v>132</v>
-      </c>
-      <c r="G108" t="s">
-        <v>126</v>
-      </c>
-      <c r="H108" t="s">
-        <v>8</v>
-      </c>
-      <c r="I108" t="s">
+      <c r="H112" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A112, Compendium!$E$15:$E$399,H$108)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" t="str" cm="1">
-        <f t="array" ref="A109:A111">_xlfn.UNIQUE(_xlfn._xlws.FILTER(Compendium!$A$15:$A$396, Compendium!$A$15:$A$396&lt;&gt;""))</f>
-        <v>EDUCATION</v>
-      </c>
-      <c r="B109">
-        <f>COUNTIF(Compendium!$A$15:$A$396, $A109)</f>
+      <c r="I112" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A112, Compendium!$E$15:$E$399,I$108)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="32" t="str">
+        <v>MEDIA</v>
+      </c>
+      <c r="B113" s="32">
+        <f>COUNTIF(Compendium!$A$15:$A$395, $A113)</f>
         <v>30</v>
       </c>
-      <c r="C109">
-        <f>COUNTIFS(Compendium!$A$15:$A$400, $A109, Compendium!$D$15:$D$400,C$108)</f>
-        <v>21</v>
-      </c>
-      <c r="D109">
-        <f>COUNTIFS(Compendium!$A$15:$A$400, $A109, Compendium!$D$15:$D$400,D$108)</f>
+      <c r="C113" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A113, Compendium!$D$15:$D$399,C$108)</f>
+        <v>22</v>
+      </c>
+      <c r="D113" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A113, Compendium!$D$15:$D$399,D$108)</f>
         <v>3</v>
       </c>
-      <c r="E109">
-        <f>COUNTIFS(Compendium!$A$15:$A$400, $A109, Compendium!$D$15:$D$400,E$108)</f>
+      <c r="E113" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A113, Compendium!$D$15:$D$399,E$108)</f>
         <v>3</v>
       </c>
-      <c r="F109">
-        <f>COUNTIFS(Compendium!$A$15:$A$400, $A109, Compendium!$D$15:$D$400,F$108)</f>
-        <v>3</v>
-      </c>
-      <c r="G109">
-        <f>COUNTIFS(Compendium!$A$15:$A$400, $A109, Compendium!$E$15:$E$400,G$108)</f>
-        <v>1</v>
-      </c>
-      <c r="H109">
-        <f>COUNTIFS(Compendium!$A$15:$A$400, $A109, Compendium!$E$15:$E$400,H$108)</f>
-        <v>20</v>
-      </c>
-      <c r="I109">
-        <f>COUNTIFS(Compendium!$A$15:$A$400, $A109, Compendium!$E$15:$E$400,I$108)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" t="str">
-        <v>HEALTH</v>
-      </c>
-      <c r="B110">
-        <f>COUNTIF(Compendium!$A$15:$A$396, $A110)</f>
-        <v>20</v>
-      </c>
-      <c r="C110">
-        <f>COUNTIFS(Compendium!$A$15:$A$400, $A110, Compendium!$D$15:$D$400,C$108)</f>
-        <v>18</v>
-      </c>
-      <c r="D110">
-        <f>COUNTIFS(Compendium!$A$15:$A$400, $A110, Compendium!$D$15:$D$400,D$108)</f>
-        <v>0</v>
-      </c>
-      <c r="E110">
-        <f>COUNTIFS(Compendium!$A$15:$A$400, $A110, Compendium!$D$15:$D$400,E$108)</f>
-        <v>1</v>
-      </c>
-      <c r="F110">
-        <f>COUNTIFS(Compendium!$A$15:$A$400, $A110, Compendium!$D$15:$D$400,F$108)</f>
-        <v>1</v>
-      </c>
-      <c r="G110">
-        <f>COUNTIFS(Compendium!$A$15:$A$400, $A110, Compendium!$E$15:$E$400,G$108)</f>
-        <v>4</v>
-      </c>
-      <c r="H110">
-        <f>COUNTIFS(Compendium!$A$15:$A$400, $A110, Compendium!$E$15:$E$400,H$108)</f>
-        <v>10</v>
-      </c>
-      <c r="I110">
-        <f>COUNTIFS(Compendium!$A$15:$A$400, $A110, Compendium!$E$15:$E$400,I$108)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" t="str">
-        <v>RETAIL</v>
-      </c>
-      <c r="B111">
-        <f>COUNTIF(Compendium!$A$15:$A$396, $A111)</f>
-        <v>16</v>
-      </c>
-      <c r="C111">
-        <f>COUNTIFS(Compendium!$A$15:$A$400, $A111, Compendium!$D$15:$D$400,C$108)</f>
-        <v>6</v>
-      </c>
-      <c r="D111">
-        <f>COUNTIFS(Compendium!$A$15:$A$400, $A111, Compendium!$D$15:$D$400,D$108)</f>
-        <v>6</v>
-      </c>
-      <c r="E111">
-        <f>COUNTIFS(Compendium!$A$15:$A$400, $A111, Compendium!$D$15:$D$400,E$108)</f>
-        <v>4</v>
-      </c>
-      <c r="F111">
-        <f>COUNTIFS(Compendium!$A$15:$A$400, $A111, Compendium!$D$15:$D$400,F$108)</f>
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <f>COUNTIFS(Compendium!$A$15:$A$400, $A111, Compendium!$E$15:$E$400,G$108)</f>
+      <c r="F113" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A113, Compendium!$D$15:$D$399,F$108)</f>
         <v>2</v>
       </c>
-      <c r="H111">
-        <f>COUNTIFS(Compendium!$A$15:$A$400, $A111, Compendium!$E$15:$E$400,H$108)</f>
-        <v>6</v>
-      </c>
-      <c r="I111">
-        <f>COUNTIFS(Compendium!$A$15:$A$400, $A111, Compendium!$E$15:$E$400,I$108)</f>
-        <v>8</v>
-      </c>
+      <c r="G113" s="32">
+        <f>COUNTIFS(Compendium!$A$15:$A$399, $A113, Compendium!$E$15:$E$399,G$108)</f>
+        <v>5</v>
+      </c>
+      <c r="H113" s="32"/>
+      <c r="I113" s="32"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="33"/>
+      <c r="B114" s="33"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="33"/>
+      <c r="E114" s="33"/>
+      <c r="F114" s="33"/>
+      <c r="G114" s="33"/>
+      <c r="H114" s="32"/>
+      <c r="I114" s="32"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="33"/>
+      <c r="B115" s="33"/>
+      <c r="C115" s="33"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="33"/>
+      <c r="G115" s="33"/>
+      <c r="H115" s="32"/>
+      <c r="I115" s="32"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="33"/>
+      <c r="B116" s="33"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="33"/>
+      <c r="F116" s="33"/>
+      <c r="G116" s="33"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="33"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="33"/>
+      <c r="G117" s="33"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="33"/>
+      <c r="B118" s="33"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="33"/>
+      <c r="G118" s="33"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="33"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="33"/>
+      <c r="D119" s="33"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="33"/>
+      <c r="G119" s="33"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="33"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
+      <c r="F120" s="33"/>
+      <c r="G120" s="33"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="33"/>
+      <c r="B121" s="33"/>
+      <c r="C121" s="33"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="33"/>
+      <c r="G121" s="33"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="33"/>
+      <c r="B122" s="33"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="33"/>
+      <c r="G122" s="33"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="33"/>
+      <c r="B123" s="33"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="33"/>
+      <c r="F123" s="33"/>
+      <c r="G123" s="33"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="33"/>
+      <c r="B124" s="33"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="33"/>
+      <c r="G124" s="33"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="33"/>
+      <c r="B125" s="33"/>
+      <c r="C125" s="33"/>
+      <c r="D125" s="33"/>
+      <c r="E125" s="33"/>
+      <c r="F125" s="33"/>
+      <c r="G125" s="33"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="33"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="33"/>
+      <c r="E126" s="33"/>
+      <c r="F126" s="33"/>
+      <c r="G126" s="33"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="33"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="33"/>
+      <c r="D127" s="33"/>
+      <c r="E127" s="33"/>
+      <c r="F127" s="33"/>
+      <c r="G127" s="33"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="33"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="33"/>
+      <c r="E128" s="33"/>
+      <c r="F128" s="33"/>
+      <c r="G128" s="33"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="33"/>
+      <c r="B129" s="33"/>
+      <c r="C129" s="33"/>
+      <c r="D129" s="33"/>
+      <c r="E129" s="33"/>
+      <c r="F129" s="33"/>
+      <c r="G129" s="33"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="33"/>
+      <c r="B130" s="33"/>
+      <c r="C130" s="33"/>
+      <c r="D130" s="33"/>
+      <c r="E130" s="33"/>
+      <c r="F130" s="33"/>
+      <c r="G130" s="33"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="33"/>
+      <c r="B131" s="33"/>
+      <c r="C131" s="33"/>
+      <c r="D131" s="33"/>
+      <c r="E131" s="33"/>
+      <c r="F131" s="33"/>
+      <c r="G131" s="33"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="33"/>
+      <c r="B132" s="33"/>
+      <c r="C132" s="33"/>
+      <c r="D132" s="33"/>
+      <c r="E132" s="33"/>
+      <c r="F132" s="33"/>
+      <c r="G132" s="33"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="33"/>
+      <c r="B133" s="33"/>
+      <c r="C133" s="33"/>
+      <c r="D133" s="33"/>
+      <c r="E133" s="33"/>
+      <c r="F133" s="33"/>
+      <c r="G133" s="33"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="33"/>
+      <c r="B134" s="33"/>
+      <c r="C134" s="33"/>
+      <c r="D134" s="33"/>
+      <c r="E134" s="33"/>
+      <c r="F134" s="33"/>
+      <c r="G134" s="33"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="33"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33"/>
+      <c r="F135" s="33"/>
+      <c r="G135" s="33"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="33"/>
+      <c r="B136" s="33"/>
+      <c r="C136" s="33"/>
+      <c r="D136" s="33"/>
+      <c r="E136" s="33"/>
+      <c r="F136" s="33"/>
+      <c r="G136" s="33"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="33"/>
+      <c r="B137" s="33"/>
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="33"/>
+      <c r="F137" s="33"/>
+      <c r="G137" s="33"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="33"/>
+      <c r="B138" s="33"/>
+      <c r="C138" s="33"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="33"/>
+      <c r="F138" s="33"/>
+      <c r="G138" s="33"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="33"/>
+      <c r="B139" s="33"/>
+      <c r="C139" s="33"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="33"/>
+      <c r="F139" s="33"/>
+      <c r="G139" s="33"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="33"/>
+      <c r="B140" s="33"/>
+      <c r="C140" s="33"/>
+      <c r="D140" s="33"/>
+      <c r="E140" s="33"/>
+      <c r="F140" s="33"/>
+      <c r="G140" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" xr:uid="{8BDCB04E-CD3F-EB40-8888-056CF3812C72}"/>
+    <hyperlink ref="B12" r:id="rId1" xr:uid="{E6E4AE5F-B568-A84F-BB0D-6D460C29A0E9}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{D7A4E737-F9E7-724D-95C2-F1E7A92875C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD90282-B97D-5146-B7BE-654DE6B03D9F}">
-  <dimension ref="A1:H219"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:XFD81"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="45.83203125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="27"/>
+    <col min="1" max="1" width="16.1640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="24"/>
     <col min="5" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="45.83203125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="40.83203125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="50.83203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="45.83203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="40.83203125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="50.83203125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="14"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="14"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="14"/>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="14"/>
+      <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="14"/>
+      <c r="B5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="14"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="14"/>
+      <c r="B7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="14"/>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="B9" s="14"/>
+      <c r="A9" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="A10" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="26" t="s">
         <v>164</v>
       </c>
+      <c r="B11" s="12" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="A12" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="14"/>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="20" t="s">
         <v>162</v>
       </c>
     </row>
@@ -7120,7 +8987,7 @@
       <c r="A15" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -7146,7 +9013,7 @@
       <c r="A16" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -7172,7 +9039,7 @@
       <c r="A17" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -7198,7 +9065,7 @@
       <c r="A18" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -7224,7 +9091,7 @@
       <c r="A19" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -7250,7 +9117,7 @@
       <c r="A20" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -7276,7 +9143,7 @@
       <c r="A21" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -7302,7 +9169,7 @@
       <c r="A22" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -7328,7 +9195,7 @@
       <c r="A23" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -7354,7 +9221,7 @@
       <c r="A24" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -7380,7 +9247,7 @@
       <c r="A25" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -7406,7 +9273,7 @@
       <c r="A26" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -7432,7 +9299,7 @@
       <c r="A27" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -7458,7 +9325,7 @@
       <c r="A28" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -7484,7 +9351,7 @@
       <c r="A29" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -7510,7 +9377,7 @@
       <c r="A30" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="10" t="s">
         <v>81</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -7536,7 +9403,7 @@
       <c r="A31" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -7562,14 +9429,14 @@
       <c r="A32" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="10" t="s">
         <v>91</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>92</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>8</v>
@@ -7588,14 +9455,14 @@
       <c r="A33" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="10" t="s">
         <v>96</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>8</v>
@@ -7614,7 +9481,7 @@
       <c r="A34" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -7640,7 +9507,7 @@
       <c r="A35" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="10" t="s">
         <v>106</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -7666,14 +9533,14 @@
       <c r="A36" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="10" t="s">
         <v>111</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>112</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>14</v>
@@ -7692,7 +9559,7 @@
       <c r="A37" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="10" t="s">
         <v>116</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -7718,7 +9585,7 @@
       <c r="A38" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="10" t="s">
         <v>121</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -7744,7 +9611,7 @@
       <c r="A39" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="10" t="s">
         <v>127</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -7770,7 +9637,7 @@
       <c r="A40" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="10" t="s">
         <v>133</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -7796,7 +9663,7 @@
       <c r="A41" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="10" t="s">
         <v>138</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -7822,7 +9689,7 @@
       <c r="A42" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="10" t="s">
         <v>143</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -7848,7 +9715,7 @@
       <c r="A43" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="10" t="s">
         <v>147</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -7874,7 +9741,7 @@
       <c r="A44" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="10" t="s">
         <v>152</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -7897,14 +9764,14 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>173</v>
+      <c r="A45" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>171</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>159</v>
@@ -7912,25 +9779,25 @@
       <c r="E45" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="H45" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="G45" s="25" t="s">
+    </row>
+    <row r="46" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B46" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="H45" s="25" t="s">
+      <c r="C46" s="22" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>178</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>159</v>
@@ -7938,25 +9805,25 @@
       <c r="E46" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="25" t="s">
+      <c r="F46" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H46" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="G46" s="25" t="s">
+    </row>
+    <row r="47" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="H46" s="25" t="s">
+      <c r="C47" s="22" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A47" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>183</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>159</v>
@@ -7964,25 +9831,25 @@
       <c r="E47" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="F47" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="H47" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="G47" s="25" t="s">
+    </row>
+    <row r="48" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B48" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="H47" s="25" t="s">
+      <c r="C48" s="22" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A48" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>188</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>159</v>
@@ -7990,25 +9857,25 @@
       <c r="E48" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F48" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="H48" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="G48" s="25" t="s">
+    </row>
+    <row r="49" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B49" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="H48" s="25" t="s">
+      <c r="C49" s="22" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A49" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>193</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>159</v>
@@ -8016,25 +9883,25 @@
       <c r="E49" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F49" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="H49" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="G49" s="25" t="s">
+    </row>
+    <row r="50" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B50" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="H49" s="25" t="s">
+      <c r="C50" s="22" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>198</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>159</v>
@@ -8042,25 +9909,25 @@
       <c r="E50" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="25" t="s">
+      <c r="F50" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="H50" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="G50" s="25" t="s">
+    </row>
+    <row r="51" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="H50" s="25" t="s">
+      <c r="C51" s="22" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>203</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>159</v>
@@ -8068,25 +9935,25 @@
       <c r="E51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="25" t="s">
+      <c r="F51" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="H51" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="G51" s="25" t="s">
+    </row>
+    <row r="52" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B52" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="H51" s="25" t="s">
+      <c r="C52" s="22" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A52" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>208</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>159</v>
@@ -8094,25 +9961,25 @@
       <c r="E52" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F52" s="25" t="s">
+      <c r="F52" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="H52" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="G52" s="25" t="s">
+    </row>
+    <row r="53" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B53" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="H52" s="25" t="s">
+      <c r="C53" s="22" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>213</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>159</v>
@@ -8120,25 +9987,25 @@
       <c r="E53" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F53" s="25" t="s">
+      <c r="F53" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="H53" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="G53" s="25" t="s">
+    </row>
+    <row r="54" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B54" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="H53" s="25" t="s">
+      <c r="C54" s="22" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>218</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>159</v>
@@ -8146,25 +10013,25 @@
       <c r="E54" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="25" t="s">
+      <c r="F54" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="H54" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="G54" s="25" t="s">
+    </row>
+    <row r="55" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B55" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="H54" s="25" t="s">
+      <c r="C55" s="22" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A55" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>223</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>159</v>
@@ -8172,25 +10039,25 @@
       <c r="E55" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F55" s="25" t="s">
+      <c r="F55" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="H55" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="G55" s="25" t="s">
+    </row>
+    <row r="56" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A56" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B56" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="H55" s="25" t="s">
+      <c r="C56" s="22" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A56" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>228</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>159</v>
@@ -8198,25 +10065,25 @@
       <c r="E56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F56" s="25" t="s">
+      <c r="F56" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="H56" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="G56" s="25" t="s">
+    </row>
+    <row r="57" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A57" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B57" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="H56" s="25" t="s">
+      <c r="C57" s="22" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A57" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>233</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>132</v>
@@ -8224,25 +10091,25 @@
       <c r="E57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="25" t="s">
+      <c r="F57" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="H57" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="G57" s="25" t="s">
+    </row>
+    <row r="58" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B58" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="H57" s="25" t="s">
+      <c r="C58" s="22" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A58" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>238</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>159</v>
@@ -8250,25 +10117,25 @@
       <c r="E58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="25" t="s">
+      <c r="F58" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H58" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="G58" s="25" t="s">
+    </row>
+    <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A59" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B59" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="H58" s="25" t="s">
+      <c r="C59" s="22" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A59" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>243</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>159</v>
@@ -8276,25 +10143,25 @@
       <c r="E59" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F59" s="25" t="s">
+      <c r="F59" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="H59" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="G59" s="25" t="s">
+    </row>
+    <row r="60" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A60" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="H59" s="25" t="s">
+      <c r="C60" s="22" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A60" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>248</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>159</v>
@@ -8302,25 +10169,25 @@
       <c r="E60" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F60" s="25" t="s">
+      <c r="F60" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="H60" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="G60" s="25" t="s">
+    </row>
+    <row r="61" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A61" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B61" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="H60" s="25" t="s">
+      <c r="C61" s="22" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A61" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>253</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>80</v>
@@ -8328,25 +10195,25 @@
       <c r="E61" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F61" s="25" t="s">
+      <c r="F61" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="H61" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="G61" s="25" t="s">
+    </row>
+    <row r="62" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A62" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B62" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H61" s="25" t="s">
+      <c r="C62" s="22" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A62" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>258</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>159</v>
@@ -8354,25 +10221,25 @@
       <c r="E62" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F62" s="25" t="s">
+      <c r="F62" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="H62" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G62" s="25" t="s">
+    </row>
+    <row r="63" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A63" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B63" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H62" s="25" t="s">
+      <c r="C63" s="22" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A63" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>263</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>159</v>
@@ -8380,25 +10247,25 @@
       <c r="E63" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="25" t="s">
+      <c r="F63" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G63" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="H63" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="G63" s="25" t="s">
+    </row>
+    <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A64" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B64" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="H63" s="25" t="s">
+      <c r="C64" s="22" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A64" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>268</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>159</v>
@@ -8406,25 +10273,25 @@
       <c r="E64" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F64" s="25" t="s">
+      <c r="F64" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="H64" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="G64" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="H64" s="25" t="s">
-        <v>271</v>
-      </c>
     </row>
     <row r="65" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A65" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>276</v>
+      <c r="A65" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>274</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>159</v>
@@ -8432,51 +10299,51 @@
       <c r="E65" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F65" s="25" t="s">
+      <c r="F65" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="G65" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="H65" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="G65" s="25" t="s">
+    </row>
+    <row r="66" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A66" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="B66" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="H65" s="25" t="s">
+      <c r="C66" s="22" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A66" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>281</v>
-      </c>
       <c r="D66" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F66" s="25" t="s">
+      <c r="F66" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="H66" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="G66" s="25" t="s">
+    </row>
+    <row r="67" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A67" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="B67" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="H66" s="25" t="s">
+      <c r="C67" s="22" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A67" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>286</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>80</v>
@@ -8484,51 +10351,51 @@
       <c r="E67" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="25" t="s">
+      <c r="F67" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="H67" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="G67" s="25" t="s">
+    </row>
+    <row r="68" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A68" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="B68" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="H67" s="25" t="s">
+      <c r="C68" s="22" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>291</v>
-      </c>
       <c r="D68" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F68" s="25" t="s">
+      <c r="F68" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="H68" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="G68" s="25" t="s">
+    </row>
+    <row r="69" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="B69" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="H68" s="25" t="s">
+      <c r="C69" s="22" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A69" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>296</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>159</v>
@@ -8536,51 +10403,51 @@
       <c r="E69" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="25" t="s">
+      <c r="F69" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="H69" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="G69" s="25" t="s">
+    </row>
+    <row r="70" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A70" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="B70" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="H69" s="25" t="s">
+      <c r="C70" s="22" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A70" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>301</v>
-      </c>
       <c r="D70" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F70" s="25" t="s">
+      <c r="F70" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="H70" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="G70" s="25" t="s">
+    </row>
+    <row r="71" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A71" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="B71" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="H70" s="25" t="s">
+      <c r="C71" s="22" t="s">
         <v>304</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A71" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="C71" s="25" t="s">
-        <v>306</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>159</v>
@@ -8588,25 +10455,25 @@
       <c r="E71" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F71" s="25" t="s">
+      <c r="F71" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="G71" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="H71" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="G71" s="25" t="s">
+    </row>
+    <row r="72" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A72" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="B72" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="H71" s="25" t="s">
+      <c r="C72" s="22" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A72" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>311</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>80</v>
@@ -8614,51 +10481,51 @@
       <c r="E72" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="25" t="s">
+      <c r="F72" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="H72" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="G72" s="25" t="s">
+    </row>
+    <row r="73" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A73" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="B73" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="H72" s="25" t="s">
+      <c r="C73" s="22" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A73" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="C73" s="25" t="s">
-        <v>316</v>
-      </c>
       <c r="D73" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F73" s="25" t="s">
+      <c r="F73" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="H73" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="G73" s="25" t="s">
+    </row>
+    <row r="74" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A74" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="B74" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H73" s="25" t="s">
+      <c r="C74" s="22" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A74" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="C74" s="25" t="s">
-        <v>321</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>159</v>
@@ -8666,51 +10533,51 @@
       <c r="E74" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F74" s="25" t="s">
+      <c r="F74" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="H74" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="G74" s="25" t="s">
+    </row>
+    <row r="75" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A75" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="B75" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="H74" s="25" t="s">
+      <c r="C75" s="22" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A75" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="C75" s="25" t="s">
-        <v>326</v>
-      </c>
       <c r="D75" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F75" s="25" t="s">
+      <c r="F75" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="G75" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="H75" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="G75" s="25" t="s">
+    </row>
+    <row r="76" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A76" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="B76" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="H75" s="25" t="s">
+      <c r="C76" s="22" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A76" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>331</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>80</v>
@@ -8718,25 +10585,25 @@
       <c r="E76" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F76" s="25" t="s">
+      <c r="F76" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="G76" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="H76" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="G76" s="25" t="s">
+    </row>
+    <row r="77" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A77" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="B77" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="H76" s="25" t="s">
+      <c r="C77" s="22" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A77" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="C77" s="25" t="s">
-        <v>336</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>159</v>
@@ -8744,25 +10611,25 @@
       <c r="E77" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F77" s="25" t="s">
+      <c r="F77" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="G77" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="H77" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="G77" s="25" t="s">
+    </row>
+    <row r="78" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="B78" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="H77" s="25" t="s">
+      <c r="C78" s="22" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="C78" s="25" t="s">
-        <v>341</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>159</v>
@@ -8770,51 +10637,51 @@
       <c r="E78" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F78" s="25" t="s">
+      <c r="F78" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="G78" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="H78" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="G78" s="25" t="s">
+    </row>
+    <row r="79" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A79" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="B79" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="H78" s="25" t="s">
+      <c r="C79" s="22" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A79" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="C79" s="25" t="s">
-        <v>346</v>
-      </c>
       <c r="D79" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F79" s="25" t="s">
+      <c r="F79" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="G79" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="H79" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="G79" s="25" t="s">
+    </row>
+    <row r="80" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A80" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="B80" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="H79" s="25" t="s">
+      <c r="C80" s="22" t="s">
         <v>349</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A80" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="C80" s="25" t="s">
-        <v>351</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>80</v>
@@ -8822,1413 +10689,3182 @@
       <c r="E80" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F80" s="25" t="s">
+      <c r="F80" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="G80" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="H80" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="G80" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="H80" s="25" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="26"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="26"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="26"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="25"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="26"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="26"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="26"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="25"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="26"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="26"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="26"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="26"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="25"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="26"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="25"/>
-      <c r="H91" s="25"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="26"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="25"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="26"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="26"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="26"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="25"/>
-      <c r="H95" s="25"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="26"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="26"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="26"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="25"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="26"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="25"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="26"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="25"/>
-      <c r="H100" s="25"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="26"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="25"/>
-      <c r="H101" s="25"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="26"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="25"/>
-      <c r="H102" s="25"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="26"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="25"/>
-      <c r="H103" s="25"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="26"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="25"/>
-      <c r="H104" s="25"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="26"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="25"/>
-      <c r="H105" s="25"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="26"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="25"/>
-      <c r="H106" s="25"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="26"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="25"/>
-      <c r="H107" s="25"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="26"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="25"/>
-      <c r="H108" s="25"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="26"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="25"/>
-      <c r="G109" s="25"/>
-      <c r="H109" s="25"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="26"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="25"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="25"/>
-      <c r="G110" s="25"/>
-      <c r="H110" s="25"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="26"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="25"/>
-      <c r="H111" s="25"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="26"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="26"/>
-      <c r="B113" s="17"/>
-      <c r="C113" s="25"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="25"/>
-      <c r="H113" s="25"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="26"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="25"/>
-      <c r="H114" s="25"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="26"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="25"/>
-      <c r="H115" s="25"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="26"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="25"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="25"/>
-      <c r="H116" s="25"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="26"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="25"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="25"/>
-      <c r="G117" s="25"/>
-      <c r="H117" s="25"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="26"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="25"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="25"/>
-      <c r="G118" s="25"/>
-      <c r="H118" s="25"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="26"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="25"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="25"/>
-      <c r="G119" s="25"/>
-      <c r="H119" s="25"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="26"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="25"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="25"/>
-      <c r="G120" s="25"/>
-      <c r="H120" s="25"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="26"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="25"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="25"/>
-      <c r="G121" s="25"/>
-      <c r="H121" s="25"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="26"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="25"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="25"/>
-      <c r="G122" s="25"/>
-      <c r="H122" s="25"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="26"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="25"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="25"/>
-      <c r="H123" s="25"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="26"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="25"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="25"/>
-      <c r="G124" s="25"/>
-      <c r="H124" s="25"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="26"/>
-      <c r="B125" s="17"/>
-      <c r="C125" s="25"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="25"/>
-      <c r="G125" s="25"/>
-      <c r="H125" s="25"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="26"/>
-      <c r="B126" s="17"/>
-      <c r="C126" s="25"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="25"/>
-      <c r="G126" s="25"/>
-      <c r="H126" s="25"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="26"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="25"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="25"/>
-      <c r="G127" s="25"/>
-      <c r="H127" s="25"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="26"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="25"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="25"/>
-      <c r="G128" s="25"/>
-      <c r="H128" s="25"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="26"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="25"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="25"/>
-      <c r="G129" s="25"/>
-      <c r="H129" s="25"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="26"/>
-      <c r="B130" s="17"/>
-      <c r="C130" s="25"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="25"/>
-      <c r="G130" s="25"/>
-      <c r="H130" s="25"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="26"/>
-      <c r="B131" s="17"/>
-      <c r="C131" s="25"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="25"/>
-      <c r="G131" s="25"/>
-      <c r="H131" s="25"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="26"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="25"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="25"/>
-      <c r="G132" s="25"/>
-      <c r="H132" s="25"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="26"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="25"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="25"/>
-      <c r="G133" s="25"/>
-      <c r="H133" s="25"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="26"/>
-      <c r="B134" s="17"/>
-      <c r="C134" s="25"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="25"/>
-      <c r="G134" s="25"/>
-      <c r="H134" s="25"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="26"/>
-      <c r="B135" s="17"/>
-      <c r="C135" s="25"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="25"/>
-      <c r="G135" s="25"/>
-      <c r="H135" s="25"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="26"/>
-      <c r="B136" s="17"/>
-      <c r="C136" s="25"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="25"/>
-      <c r="G136" s="25"/>
-      <c r="H136" s="25"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="26"/>
-      <c r="B137" s="17"/>
-      <c r="C137" s="25"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="25"/>
-      <c r="G137" s="25"/>
-      <c r="H137" s="25"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="26"/>
-      <c r="B138" s="17"/>
-      <c r="C138" s="25"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="25"/>
-      <c r="G138" s="25"/>
-      <c r="H138" s="25"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="26"/>
-      <c r="B139" s="17"/>
-      <c r="C139" s="25"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="25"/>
-      <c r="G139" s="25"/>
-      <c r="H139" s="25"/>
+    </row>
+    <row r="81" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A81" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="G81" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="H81" s="22" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A82" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F82" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="G82" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="H82" s="22" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A83" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="G83" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="H83" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A84" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="G84" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="H84" s="22" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="G85" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="H85" s="22" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F86" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="G86" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="H86" s="22" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A87" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="G87" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="H87" s="22" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A88" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="G88" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="H88" s="22" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A89" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="G89" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="H89" s="22" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A90" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="G90" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="H90" s="22" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A91" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="G91" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="H91" s="22" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A92" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="H92" s="22" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A93" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="G93" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="H93" s="22" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A94" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="G94" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="H94" s="22" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A95" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="G95" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="H95" s="22" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A96" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="G96" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="H96" s="22" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A97" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="G97" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="H97" s="22" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A98" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="G98" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="H98" s="22" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A99" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="G99" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="H99" s="22" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A100" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="G100" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="H100" s="22" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A101" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F101" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="G101" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="H101" s="22" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A102" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="G102" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="H102" s="22" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A103" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="G103" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="H103" s="22" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A104" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="G104" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="H104" s="22" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A105" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="G105" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H105" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A106" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="G106" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="H106" s="22" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A107" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F107" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="G107" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="H107" s="22" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A108" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="G108" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="H108" s="22" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A109" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="G109" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="H109" s="22" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A110" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F110" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="G110" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="H110" s="22" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A111" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="G111" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="H111" s="22" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A112" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="G112" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="H112" s="22" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A113" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="C113" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="G113" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="H113" s="22" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A114" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>523</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="G114" s="22" t="s">
+        <v>525</v>
+      </c>
+      <c r="H114" s="22" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A115" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" s="22" t="s">
+        <v>529</v>
+      </c>
+      <c r="G115" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="H115" s="22" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A116" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F116" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="G116" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="H116" s="22" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A117" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="G117" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="H117" s="22" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A118" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="G118" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="H118" s="22" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A119" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="C119" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="G119" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="H119" s="22" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A120" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="C120" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="G120" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="H120" s="22" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A121" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="C121" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="G121" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="H121" s="22" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A122" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="C122" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="G122" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="H122" s="22" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="C123" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="22" t="s">
+        <v>569</v>
+      </c>
+      <c r="G123" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="H123" s="22" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A124" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C124" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="G124" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="H124" s="22" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A125" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F125" s="22" t="s">
+        <v>579</v>
+      </c>
+      <c r="G125" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="H125" s="22" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A126" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>582</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="G126" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="H126" s="22" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A127" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="C127" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="G127" s="22" t="s">
+        <v>589</v>
+      </c>
+      <c r="H127" s="22" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A128" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="C128" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" s="22" t="s">
+        <v>593</v>
+      </c>
+      <c r="G128" s="22" t="s">
+        <v>594</v>
+      </c>
+      <c r="H128" s="22" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A129" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="G129" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="H129" s="22" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A130" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="C130" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="G130" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="H130" s="22" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A131" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="C131" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" s="22" t="s">
+        <v>608</v>
+      </c>
+      <c r="G131" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="H131" s="22" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A132" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="C132" s="22" t="s">
+        <v>612</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" s="22" t="s">
+        <v>613</v>
+      </c>
+      <c r="G132" s="22" t="s">
+        <v>614</v>
+      </c>
+      <c r="H132" s="22" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A133" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="C133" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" s="22" t="s">
+        <v>618</v>
+      </c>
+      <c r="G133" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="H133" s="22" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A134" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="C134" s="22" t="s">
+        <v>622</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" s="22" t="s">
+        <v>623</v>
+      </c>
+      <c r="G134" s="22" t="s">
+        <v>624</v>
+      </c>
+      <c r="H134" s="22" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A135" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="C135" s="22" t="s">
+        <v>627</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F135" s="22" t="s">
+        <v>628</v>
+      </c>
+      <c r="G135" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="H135" s="22" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A136" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="C136" s="22" t="s">
+        <v>631</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="22" t="s">
+        <v>632</v>
+      </c>
+      <c r="G136" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="H136" s="22" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A137" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="C137" s="22" t="s">
+        <v>636</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F137" s="22" t="s">
+        <v>637</v>
+      </c>
+      <c r="G137" s="22" t="s">
+        <v>638</v>
+      </c>
+      <c r="H137" s="22" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="C138" s="22" t="s">
+        <v>641</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" s="22" t="s">
+        <v>642</v>
+      </c>
+      <c r="G138" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="H138" s="22" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A139" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="C139" s="22" t="s">
+        <v>646</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F139" s="22" t="s">
+        <v>647</v>
+      </c>
+      <c r="G139" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="H139" s="22" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="26"/>
-      <c r="B140" s="17"/>
-      <c r="C140" s="25"/>
+      <c r="A140" s="23"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="22"/>
       <c r="D140" s="5"/>
       <c r="E140" s="4"/>
-      <c r="F140" s="25"/>
-      <c r="G140" s="25"/>
-      <c r="H140" s="25"/>
+      <c r="F140" s="22"/>
+      <c r="G140" s="22"/>
+      <c r="H140" s="22"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="26"/>
-      <c r="B141" s="17"/>
-      <c r="C141" s="25"/>
+      <c r="A141" s="23"/>
+      <c r="B141" s="14"/>
+      <c r="C141" s="22"/>
       <c r="D141" s="5"/>
       <c r="E141" s="4"/>
-      <c r="F141" s="25"/>
-      <c r="G141" s="25"/>
-      <c r="H141" s="25"/>
+      <c r="F141" s="22"/>
+      <c r="G141" s="22"/>
+      <c r="H141" s="22"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="26"/>
-      <c r="B142" s="17"/>
-      <c r="C142" s="25"/>
+      <c r="A142" s="23"/>
+      <c r="B142" s="14"/>
+      <c r="C142" s="22"/>
       <c r="D142" s="5"/>
       <c r="E142" s="4"/>
-      <c r="F142" s="25"/>
-      <c r="G142" s="25"/>
-      <c r="H142" s="25"/>
+      <c r="F142" s="22"/>
+      <c r="G142" s="22"/>
+      <c r="H142" s="22"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" s="26"/>
-      <c r="B143" s="17"/>
-      <c r="C143" s="25"/>
+      <c r="A143" s="23"/>
+      <c r="B143" s="14"/>
+      <c r="C143" s="22"/>
       <c r="D143" s="5"/>
       <c r="E143" s="4"/>
-      <c r="F143" s="25"/>
-      <c r="G143" s="25"/>
-      <c r="H143" s="25"/>
+      <c r="F143" s="22"/>
+      <c r="G143" s="22"/>
+      <c r="H143" s="22"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="26"/>
-      <c r="B144" s="17"/>
-      <c r="C144" s="25"/>
+      <c r="A144" s="23"/>
+      <c r="B144" s="14"/>
+      <c r="C144" s="22"/>
       <c r="D144" s="5"/>
       <c r="E144" s="4"/>
-      <c r="F144" s="25"/>
-      <c r="G144" s="25"/>
-      <c r="H144" s="25"/>
+      <c r="F144" s="22"/>
+      <c r="G144" s="22"/>
+      <c r="H144" s="22"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" s="26"/>
-      <c r="B145" s="17"/>
-      <c r="C145" s="25"/>
+      <c r="A145" s="23"/>
+      <c r="B145" s="14"/>
+      <c r="C145" s="22"/>
       <c r="D145" s="5"/>
       <c r="E145" s="4"/>
-      <c r="F145" s="25"/>
-      <c r="G145" s="25"/>
-      <c r="H145" s="25"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="22"/>
+      <c r="H145" s="22"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="26"/>
-      <c r="B146" s="17"/>
-      <c r="C146" s="25"/>
+      <c r="A146" s="23"/>
+      <c r="B146" s="14"/>
+      <c r="C146" s="22"/>
       <c r="D146" s="5"/>
       <c r="E146" s="4"/>
-      <c r="F146" s="25"/>
-      <c r="G146" s="25"/>
-      <c r="H146" s="25"/>
+      <c r="F146" s="22"/>
+      <c r="G146" s="22"/>
+      <c r="H146" s="22"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" s="26"/>
-      <c r="B147" s="17"/>
-      <c r="C147" s="25"/>
+      <c r="A147" s="23"/>
+      <c r="B147" s="14"/>
+      <c r="C147" s="22"/>
       <c r="D147" s="5"/>
       <c r="E147" s="4"/>
-      <c r="F147" s="25"/>
-      <c r="G147" s="25"/>
-      <c r="H147" s="25"/>
+      <c r="F147" s="22"/>
+      <c r="G147" s="22"/>
+      <c r="H147" s="22"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" s="26"/>
-      <c r="B148" s="17"/>
-      <c r="C148" s="25"/>
+      <c r="A148" s="23"/>
+      <c r="B148" s="14"/>
+      <c r="C148" s="22"/>
       <c r="D148" s="5"/>
       <c r="E148" s="4"/>
-      <c r="F148" s="25"/>
-      <c r="G148" s="25"/>
-      <c r="H148" s="25"/>
+      <c r="F148" s="22"/>
+      <c r="G148" s="22"/>
+      <c r="H148" s="22"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" s="26"/>
-      <c r="B149" s="17"/>
-      <c r="C149" s="25"/>
+      <c r="A149" s="23"/>
+      <c r="B149" s="14"/>
+      <c r="C149" s="22"/>
       <c r="D149" s="5"/>
       <c r="E149" s="4"/>
-      <c r="F149" s="25"/>
-      <c r="G149" s="25"/>
-      <c r="H149" s="25"/>
+      <c r="F149" s="22"/>
+      <c r="G149" s="22"/>
+      <c r="H149" s="22"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" s="26"/>
-      <c r="B150" s="17"/>
-      <c r="C150" s="25"/>
+      <c r="A150" s="23"/>
+      <c r="B150" s="14"/>
+      <c r="C150" s="22"/>
       <c r="D150" s="5"/>
       <c r="E150" s="4"/>
-      <c r="F150" s="25"/>
-      <c r="G150" s="25"/>
-      <c r="H150" s="25"/>
+      <c r="F150" s="22"/>
+      <c r="G150" s="22"/>
+      <c r="H150" s="22"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151" s="26"/>
-      <c r="B151" s="17"/>
-      <c r="C151" s="25"/>
+      <c r="A151" s="23"/>
+      <c r="B151" s="14"/>
+      <c r="C151" s="22"/>
       <c r="D151" s="5"/>
       <c r="E151" s="4"/>
-      <c r="F151" s="25"/>
-      <c r="G151" s="25"/>
-      <c r="H151" s="25"/>
+      <c r="F151" s="22"/>
+      <c r="G151" s="22"/>
+      <c r="H151" s="22"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" s="26"/>
-      <c r="B152" s="17"/>
-      <c r="C152" s="25"/>
+      <c r="A152" s="23"/>
+      <c r="B152" s="14"/>
+      <c r="C152" s="22"/>
       <c r="D152" s="5"/>
       <c r="E152" s="4"/>
-      <c r="F152" s="25"/>
-      <c r="G152" s="25"/>
-      <c r="H152" s="25"/>
+      <c r="F152" s="22"/>
+      <c r="G152" s="22"/>
+      <c r="H152" s="22"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153" s="26"/>
-      <c r="B153" s="17"/>
-      <c r="C153" s="25"/>
+      <c r="A153" s="23"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="22"/>
       <c r="D153" s="5"/>
       <c r="E153" s="4"/>
-      <c r="F153" s="25"/>
-      <c r="G153" s="25"/>
-      <c r="H153" s="25"/>
+      <c r="F153" s="22"/>
+      <c r="G153" s="22"/>
+      <c r="H153" s="22"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" s="26"/>
-      <c r="B154" s="17"/>
-      <c r="C154" s="25"/>
+      <c r="A154" s="23"/>
+      <c r="B154" s="14"/>
+      <c r="C154" s="22"/>
       <c r="D154" s="5"/>
       <c r="E154" s="4"/>
-      <c r="F154" s="25"/>
-      <c r="G154" s="25"/>
-      <c r="H154" s="25"/>
+      <c r="F154" s="22"/>
+      <c r="G154" s="22"/>
+      <c r="H154" s="22"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A155" s="26"/>
-      <c r="B155" s="17"/>
-      <c r="C155" s="25"/>
+      <c r="A155" s="23"/>
+      <c r="B155" s="14"/>
+      <c r="C155" s="22"/>
       <c r="D155" s="5"/>
       <c r="E155" s="4"/>
-      <c r="F155" s="25"/>
-      <c r="G155" s="25"/>
-      <c r="H155" s="25"/>
+      <c r="F155" s="22"/>
+      <c r="G155" s="22"/>
+      <c r="H155" s="22"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156" s="26"/>
-      <c r="B156" s="17"/>
-      <c r="C156" s="25"/>
+      <c r="A156" s="23"/>
+      <c r="B156" s="14"/>
+      <c r="C156" s="22"/>
       <c r="D156" s="5"/>
       <c r="E156" s="4"/>
-      <c r="F156" s="25"/>
-      <c r="G156" s="25"/>
-      <c r="H156" s="25"/>
+      <c r="F156" s="22"/>
+      <c r="G156" s="22"/>
+      <c r="H156" s="22"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" s="26"/>
-      <c r="B157" s="17"/>
-      <c r="C157" s="25"/>
+      <c r="A157" s="23"/>
+      <c r="B157" s="14"/>
+      <c r="C157" s="22"/>
       <c r="D157" s="5"/>
       <c r="E157" s="4"/>
-      <c r="F157" s="25"/>
-      <c r="G157" s="25"/>
-      <c r="H157" s="25"/>
+      <c r="F157" s="22"/>
+      <c r="G157" s="22"/>
+      <c r="H157" s="22"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="26"/>
-      <c r="B158" s="17"/>
-      <c r="C158" s="25"/>
+      <c r="A158" s="23"/>
+      <c r="B158" s="14"/>
+      <c r="C158" s="22"/>
       <c r="D158" s="5"/>
       <c r="E158" s="4"/>
-      <c r="F158" s="25"/>
-      <c r="G158" s="25"/>
-      <c r="H158" s="25"/>
+      <c r="F158" s="22"/>
+      <c r="G158" s="22"/>
+      <c r="H158" s="22"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" s="26"/>
-      <c r="B159" s="17"/>
-      <c r="C159" s="25"/>
+      <c r="A159" s="23"/>
+      <c r="B159" s="14"/>
+      <c r="C159" s="22"/>
       <c r="D159" s="5"/>
       <c r="E159" s="4"/>
-      <c r="F159" s="25"/>
-      <c r="G159" s="25"/>
-      <c r="H159" s="25"/>
+      <c r="F159" s="22"/>
+      <c r="G159" s="22"/>
+      <c r="H159" s="22"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="26"/>
-      <c r="B160" s="17"/>
-      <c r="C160" s="25"/>
+      <c r="A160" s="23"/>
+      <c r="B160" s="14"/>
+      <c r="C160" s="22"/>
       <c r="D160" s="5"/>
       <c r="E160" s="4"/>
-      <c r="F160" s="25"/>
-      <c r="G160" s="25"/>
-      <c r="H160" s="25"/>
+      <c r="F160" s="22"/>
+      <c r="G160" s="22"/>
+      <c r="H160" s="22"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="26"/>
-      <c r="B161" s="17"/>
-      <c r="C161" s="25"/>
+      <c r="A161" s="23"/>
+      <c r="B161" s="14"/>
+      <c r="C161" s="22"/>
       <c r="D161" s="5"/>
       <c r="E161" s="4"/>
-      <c r="F161" s="25"/>
-      <c r="G161" s="25"/>
-      <c r="H161" s="25"/>
+      <c r="F161" s="22"/>
+      <c r="G161" s="22"/>
+      <c r="H161" s="22"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="26"/>
-      <c r="B162" s="17"/>
-      <c r="C162" s="25"/>
+      <c r="A162" s="23"/>
+      <c r="B162" s="14"/>
+      <c r="C162" s="22"/>
       <c r="D162" s="5"/>
       <c r="E162" s="4"/>
-      <c r="F162" s="25"/>
-      <c r="G162" s="25"/>
-      <c r="H162" s="25"/>
+      <c r="F162" s="22"/>
+      <c r="G162" s="22"/>
+      <c r="H162" s="22"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="26"/>
-      <c r="B163" s="17"/>
-      <c r="C163" s="25"/>
+      <c r="A163" s="23"/>
+      <c r="B163" s="14"/>
+      <c r="C163" s="22"/>
       <c r="D163" s="5"/>
       <c r="E163" s="4"/>
-      <c r="F163" s="25"/>
-      <c r="G163" s="25"/>
-      <c r="H163" s="25"/>
+      <c r="F163" s="22"/>
+      <c r="G163" s="22"/>
+      <c r="H163" s="22"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="26"/>
-      <c r="B164" s="17"/>
-      <c r="C164" s="25"/>
+      <c r="A164" s="23"/>
+      <c r="B164" s="14"/>
+      <c r="C164" s="22"/>
       <c r="D164" s="5"/>
       <c r="E164" s="4"/>
-      <c r="F164" s="25"/>
-      <c r="G164" s="25"/>
-      <c r="H164" s="25"/>
+      <c r="F164" s="22"/>
+      <c r="G164" s="22"/>
+      <c r="H164" s="22"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" s="26"/>
-      <c r="B165" s="17"/>
-      <c r="C165" s="25"/>
+      <c r="A165" s="23"/>
+      <c r="B165" s="14"/>
+      <c r="C165" s="22"/>
       <c r="D165" s="5"/>
       <c r="E165" s="4"/>
-      <c r="F165" s="25"/>
-      <c r="G165" s="25"/>
-      <c r="H165" s="25"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="22"/>
+      <c r="H165" s="22"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" s="26"/>
-      <c r="B166" s="17"/>
-      <c r="C166" s="25"/>
+      <c r="A166" s="23"/>
+      <c r="B166" s="14"/>
+      <c r="C166" s="22"/>
       <c r="D166" s="5"/>
       <c r="E166" s="4"/>
-      <c r="F166" s="25"/>
-      <c r="G166" s="25"/>
-      <c r="H166" s="25"/>
+      <c r="F166" s="22"/>
+      <c r="G166" s="22"/>
+      <c r="H166" s="22"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" s="26"/>
-      <c r="B167" s="17"/>
-      <c r="C167" s="25"/>
+      <c r="A167" s="23"/>
+      <c r="B167" s="14"/>
+      <c r="C167" s="22"/>
       <c r="D167" s="5"/>
       <c r="E167" s="4"/>
-      <c r="F167" s="25"/>
-      <c r="G167" s="25"/>
-      <c r="H167" s="25"/>
+      <c r="F167" s="22"/>
+      <c r="G167" s="22"/>
+      <c r="H167" s="22"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A168" s="26"/>
-      <c r="B168" s="17"/>
-      <c r="C168" s="25"/>
+      <c r="A168" s="23"/>
+      <c r="B168" s="14"/>
+      <c r="C168" s="22"/>
       <c r="D168" s="5"/>
       <c r="E168" s="4"/>
-      <c r="F168" s="25"/>
-      <c r="G168" s="25"/>
-      <c r="H168" s="25"/>
+      <c r="F168" s="22"/>
+      <c r="G168" s="22"/>
+      <c r="H168" s="22"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" s="26"/>
-      <c r="B169" s="17"/>
-      <c r="C169" s="25"/>
+      <c r="A169" s="23"/>
+      <c r="B169" s="14"/>
+      <c r="C169" s="22"/>
       <c r="D169" s="5"/>
       <c r="E169" s="4"/>
-      <c r="F169" s="25"/>
-      <c r="G169" s="25"/>
-      <c r="H169" s="25"/>
+      <c r="F169" s="22"/>
+      <c r="G169" s="22"/>
+      <c r="H169" s="22"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" s="26"/>
-      <c r="B170" s="17"/>
-      <c r="C170" s="25"/>
+      <c r="A170" s="23"/>
+      <c r="B170" s="14"/>
+      <c r="C170" s="22"/>
       <c r="D170" s="5"/>
       <c r="E170" s="4"/>
-      <c r="F170" s="25"/>
-      <c r="G170" s="25"/>
-      <c r="H170" s="25"/>
+      <c r="F170" s="22"/>
+      <c r="G170" s="22"/>
+      <c r="H170" s="22"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A171" s="26"/>
-      <c r="B171" s="17"/>
-      <c r="C171" s="25"/>
+      <c r="A171" s="23"/>
+      <c r="B171" s="14"/>
+      <c r="C171" s="22"/>
       <c r="D171" s="5"/>
       <c r="E171" s="4"/>
-      <c r="F171" s="25"/>
-      <c r="G171" s="25"/>
-      <c r="H171" s="25"/>
+      <c r="F171" s="22"/>
+      <c r="G171" s="22"/>
+      <c r="H171" s="22"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" s="26"/>
-      <c r="B172" s="17"/>
-      <c r="C172" s="25"/>
+      <c r="A172" s="23"/>
+      <c r="B172" s="14"/>
+      <c r="C172" s="22"/>
       <c r="D172" s="5"/>
       <c r="E172" s="4"/>
-      <c r="F172" s="25"/>
-      <c r="G172" s="25"/>
-      <c r="H172" s="25"/>
+      <c r="F172" s="22"/>
+      <c r="G172" s="22"/>
+      <c r="H172" s="22"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" s="26"/>
-      <c r="B173" s="17"/>
-      <c r="C173" s="25"/>
+      <c r="A173" s="23"/>
+      <c r="B173" s="14"/>
+      <c r="C173" s="22"/>
       <c r="D173" s="5"/>
       <c r="E173" s="4"/>
-      <c r="F173" s="25"/>
-      <c r="G173" s="25"/>
-      <c r="H173" s="25"/>
+      <c r="F173" s="22"/>
+      <c r="G173" s="22"/>
+      <c r="H173" s="22"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" s="26"/>
-      <c r="B174" s="17"/>
-      <c r="C174" s="25"/>
+      <c r="A174" s="23"/>
+      <c r="B174" s="14"/>
+      <c r="C174" s="22"/>
       <c r="D174" s="5"/>
       <c r="E174" s="4"/>
-      <c r="F174" s="25"/>
-      <c r="G174" s="25"/>
-      <c r="H174" s="25"/>
+      <c r="F174" s="22"/>
+      <c r="G174" s="22"/>
+      <c r="H174" s="22"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175" s="26"/>
-      <c r="B175" s="17"/>
-      <c r="C175" s="25"/>
+      <c r="A175" s="23"/>
+      <c r="B175" s="14"/>
+      <c r="C175" s="22"/>
       <c r="D175" s="5"/>
       <c r="E175" s="4"/>
-      <c r="F175" s="25"/>
-      <c r="G175" s="25"/>
-      <c r="H175" s="25"/>
+      <c r="F175" s="22"/>
+      <c r="G175" s="22"/>
+      <c r="H175" s="22"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176" s="26"/>
-      <c r="B176" s="17"/>
-      <c r="C176" s="25"/>
+      <c r="A176" s="23"/>
+      <c r="B176" s="14"/>
+      <c r="C176" s="22"/>
       <c r="D176" s="5"/>
       <c r="E176" s="4"/>
-      <c r="F176" s="25"/>
-      <c r="G176" s="25"/>
-      <c r="H176" s="25"/>
+      <c r="F176" s="22"/>
+      <c r="G176" s="22"/>
+      <c r="H176" s="22"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177" s="26"/>
-      <c r="B177" s="17"/>
-      <c r="C177" s="25"/>
+      <c r="A177" s="23"/>
+      <c r="B177" s="14"/>
+      <c r="C177" s="22"/>
       <c r="D177" s="5"/>
       <c r="E177" s="4"/>
-      <c r="F177" s="25"/>
-      <c r="G177" s="25"/>
-      <c r="H177" s="25"/>
+      <c r="F177" s="22"/>
+      <c r="G177" s="22"/>
+      <c r="H177" s="22"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" s="26"/>
-      <c r="B178" s="17"/>
-      <c r="C178" s="25"/>
+      <c r="A178" s="23"/>
+      <c r="B178" s="14"/>
+      <c r="C178" s="22"/>
       <c r="D178" s="5"/>
       <c r="E178" s="4"/>
-      <c r="F178" s="25"/>
-      <c r="G178" s="25"/>
-      <c r="H178" s="25"/>
+      <c r="F178" s="22"/>
+      <c r="G178" s="22"/>
+      <c r="H178" s="22"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A179" s="26"/>
-      <c r="B179" s="17"/>
-      <c r="C179" s="25"/>
+      <c r="A179" s="23"/>
+      <c r="B179" s="14"/>
+      <c r="C179" s="22"/>
       <c r="D179" s="5"/>
       <c r="E179" s="4"/>
-      <c r="F179" s="25"/>
-      <c r="G179" s="25"/>
-      <c r="H179" s="25"/>
+      <c r="F179" s="22"/>
+      <c r="G179" s="22"/>
+      <c r="H179" s="22"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180" s="26"/>
-      <c r="B180" s="17"/>
-      <c r="C180" s="25"/>
+      <c r="A180" s="23"/>
+      <c r="B180" s="14"/>
+      <c r="C180" s="22"/>
       <c r="D180" s="5"/>
       <c r="E180" s="4"/>
-      <c r="F180" s="25"/>
-      <c r="G180" s="25"/>
-      <c r="H180" s="25"/>
+      <c r="F180" s="22"/>
+      <c r="G180" s="22"/>
+      <c r="H180" s="22"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="26"/>
-      <c r="B181" s="17"/>
-      <c r="C181" s="25"/>
+      <c r="A181" s="23"/>
+      <c r="B181" s="14"/>
+      <c r="C181" s="22"/>
       <c r="D181" s="5"/>
       <c r="E181" s="4"/>
-      <c r="F181" s="25"/>
-      <c r="G181" s="25"/>
-      <c r="H181" s="25"/>
+      <c r="F181" s="22"/>
+      <c r="G181" s="22"/>
+      <c r="H181" s="22"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" s="26"/>
-      <c r="B182" s="17"/>
-      <c r="C182" s="25"/>
+      <c r="A182" s="23"/>
+      <c r="B182" s="14"/>
+      <c r="C182" s="22"/>
       <c r="D182" s="5"/>
       <c r="E182" s="4"/>
-      <c r="F182" s="25"/>
-      <c r="G182" s="25"/>
-      <c r="H182" s="25"/>
+      <c r="F182" s="22"/>
+      <c r="G182" s="22"/>
+      <c r="H182" s="22"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="26"/>
-      <c r="B183" s="17"/>
-      <c r="C183" s="25"/>
+      <c r="A183" s="23"/>
+      <c r="B183" s="14"/>
+      <c r="C183" s="22"/>
       <c r="D183" s="5"/>
       <c r="E183" s="4"/>
-      <c r="F183" s="25"/>
-      <c r="G183" s="25"/>
-      <c r="H183" s="25"/>
+      <c r="F183" s="22"/>
+      <c r="G183" s="22"/>
+      <c r="H183" s="22"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184" s="26"/>
-      <c r="B184" s="17"/>
-      <c r="C184" s="25"/>
+      <c r="A184" s="23"/>
+      <c r="B184" s="14"/>
+      <c r="C184" s="22"/>
       <c r="D184" s="5"/>
       <c r="E184" s="4"/>
-      <c r="F184" s="25"/>
-      <c r="G184" s="25"/>
-      <c r="H184" s="25"/>
+      <c r="F184" s="22"/>
+      <c r="G184" s="22"/>
+      <c r="H184" s="22"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A185" s="26"/>
-      <c r="B185" s="17"/>
-      <c r="C185" s="25"/>
+      <c r="A185" s="23"/>
+      <c r="B185" s="14"/>
+      <c r="C185" s="22"/>
       <c r="D185" s="5"/>
       <c r="E185" s="4"/>
-      <c r="F185" s="25"/>
-      <c r="G185" s="25"/>
-      <c r="H185" s="25"/>
+      <c r="F185" s="22"/>
+      <c r="G185" s="22"/>
+      <c r="H185" s="22"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A186" s="26"/>
-      <c r="B186" s="17"/>
-      <c r="C186" s="25"/>
+      <c r="A186" s="23"/>
+      <c r="B186" s="14"/>
+      <c r="C186" s="22"/>
       <c r="D186" s="5"/>
       <c r="E186" s="4"/>
-      <c r="F186" s="25"/>
-      <c r="G186" s="25"/>
-      <c r="H186" s="25"/>
+      <c r="F186" s="22"/>
+      <c r="G186" s="22"/>
+      <c r="H186" s="22"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A187" s="26"/>
-      <c r="B187" s="17"/>
-      <c r="C187" s="25"/>
+      <c r="A187" s="23"/>
+      <c r="B187" s="14"/>
+      <c r="C187" s="22"/>
       <c r="D187" s="5"/>
       <c r="E187" s="4"/>
-      <c r="F187" s="25"/>
-      <c r="G187" s="25"/>
-      <c r="H187" s="25"/>
+      <c r="F187" s="22"/>
+      <c r="G187" s="22"/>
+      <c r="H187" s="22"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A188" s="26"/>
-      <c r="B188" s="17"/>
-      <c r="C188" s="25"/>
+      <c r="A188" s="23"/>
+      <c r="B188" s="14"/>
+      <c r="C188" s="22"/>
       <c r="D188" s="5"/>
       <c r="E188" s="4"/>
-      <c r="F188" s="25"/>
-      <c r="G188" s="25"/>
-      <c r="H188" s="25"/>
+      <c r="F188" s="22"/>
+      <c r="G188" s="22"/>
+      <c r="H188" s="22"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A189" s="26"/>
-      <c r="B189" s="17"/>
-      <c r="C189" s="25"/>
+      <c r="A189" s="23"/>
+      <c r="B189" s="14"/>
+      <c r="C189" s="22"/>
       <c r="D189" s="5"/>
       <c r="E189" s="4"/>
-      <c r="F189" s="25"/>
-      <c r="G189" s="25"/>
-      <c r="H189" s="25"/>
+      <c r="F189" s="22"/>
+      <c r="G189" s="22"/>
+      <c r="H189" s="22"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A190" s="26"/>
-      <c r="B190" s="17"/>
-      <c r="C190" s="25"/>
+      <c r="A190" s="23"/>
+      <c r="B190" s="14"/>
+      <c r="C190" s="22"/>
       <c r="D190" s="5"/>
       <c r="E190" s="4"/>
-      <c r="F190" s="25"/>
-      <c r="G190" s="25"/>
-      <c r="H190" s="25"/>
+      <c r="F190" s="22"/>
+      <c r="G190" s="22"/>
+      <c r="H190" s="22"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A191" s="26"/>
-      <c r="B191" s="17"/>
-      <c r="C191" s="25"/>
+      <c r="A191" s="23"/>
+      <c r="B191" s="14"/>
+      <c r="C191" s="22"/>
       <c r="D191" s="5"/>
       <c r="E191" s="4"/>
-      <c r="F191" s="25"/>
-      <c r="G191" s="25"/>
-      <c r="H191" s="25"/>
+      <c r="F191" s="22"/>
+      <c r="G191" s="22"/>
+      <c r="H191" s="22"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A192" s="26"/>
-      <c r="B192" s="17"/>
-      <c r="C192" s="25"/>
+      <c r="A192" s="23"/>
+      <c r="B192" s="14"/>
+      <c r="C192" s="22"/>
       <c r="D192" s="5"/>
       <c r="E192" s="4"/>
-      <c r="F192" s="25"/>
-      <c r="G192" s="25"/>
-      <c r="H192" s="25"/>
+      <c r="F192" s="22"/>
+      <c r="G192" s="22"/>
+      <c r="H192" s="22"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A193" s="26"/>
-      <c r="B193" s="17"/>
-      <c r="C193" s="25"/>
+      <c r="A193" s="23"/>
+      <c r="B193" s="14"/>
+      <c r="C193" s="22"/>
       <c r="D193" s="5"/>
       <c r="E193" s="4"/>
-      <c r="F193" s="25"/>
-      <c r="G193" s="25"/>
-      <c r="H193" s="25"/>
+      <c r="F193" s="22"/>
+      <c r="G193" s="22"/>
+      <c r="H193" s="22"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A194" s="26"/>
-      <c r="B194" s="17"/>
-      <c r="C194" s="25"/>
+      <c r="A194" s="23"/>
+      <c r="B194" s="14"/>
+      <c r="C194" s="22"/>
       <c r="D194" s="5"/>
       <c r="E194" s="4"/>
-      <c r="F194" s="25"/>
-      <c r="G194" s="25"/>
-      <c r="H194" s="25"/>
+      <c r="F194" s="22"/>
+      <c r="G194" s="22"/>
+      <c r="H194" s="22"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A195" s="26"/>
-      <c r="B195" s="17"/>
-      <c r="C195" s="25"/>
+      <c r="A195" s="23"/>
+      <c r="B195" s="14"/>
+      <c r="C195" s="22"/>
       <c r="D195" s="5"/>
       <c r="E195" s="4"/>
-      <c r="F195" s="25"/>
-      <c r="G195" s="25"/>
-      <c r="H195" s="25"/>
+      <c r="F195" s="22"/>
+      <c r="G195" s="22"/>
+      <c r="H195" s="22"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A196" s="26"/>
-      <c r="B196" s="17"/>
-      <c r="C196" s="25"/>
+      <c r="A196" s="23"/>
+      <c r="B196" s="14"/>
+      <c r="C196" s="22"/>
       <c r="D196" s="5"/>
       <c r="E196" s="4"/>
-      <c r="F196" s="25"/>
-      <c r="G196" s="25"/>
-      <c r="H196" s="25"/>
+      <c r="F196" s="22"/>
+      <c r="G196" s="22"/>
+      <c r="H196" s="22"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A197" s="26"/>
-      <c r="B197" s="17"/>
-      <c r="C197" s="25"/>
+      <c r="A197" s="23"/>
+      <c r="B197" s="14"/>
+      <c r="C197" s="22"/>
       <c r="D197" s="5"/>
       <c r="E197" s="4"/>
-      <c r="F197" s="25"/>
-      <c r="G197" s="25"/>
-      <c r="H197" s="25"/>
+      <c r="F197" s="22"/>
+      <c r="G197" s="22"/>
+      <c r="H197" s="22"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A198" s="26"/>
-      <c r="B198" s="17"/>
-      <c r="C198" s="25"/>
+      <c r="A198" s="23"/>
+      <c r="B198" s="14"/>
+      <c r="C198" s="22"/>
       <c r="D198" s="5"/>
       <c r="E198" s="4"/>
-      <c r="F198" s="25"/>
-      <c r="G198" s="25"/>
-      <c r="H198" s="25"/>
+      <c r="F198" s="22"/>
+      <c r="G198" s="22"/>
+      <c r="H198" s="22"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A199" s="26"/>
-      <c r="B199" s="17"/>
-      <c r="C199" s="25"/>
+      <c r="A199" s="23"/>
+      <c r="B199" s="14"/>
+      <c r="C199" s="22"/>
       <c r="D199" s="5"/>
       <c r="E199" s="4"/>
-      <c r="F199" s="25"/>
-      <c r="G199" s="25"/>
-      <c r="H199" s="25"/>
+      <c r="F199" s="22"/>
+      <c r="G199" s="22"/>
+      <c r="H199" s="22"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A200" s="26"/>
-      <c r="B200" s="17"/>
-      <c r="C200" s="25"/>
+      <c r="A200" s="23"/>
+      <c r="B200" s="14"/>
+      <c r="C200" s="22"/>
       <c r="D200" s="5"/>
       <c r="E200" s="4"/>
-      <c r="F200" s="25"/>
-      <c r="G200" s="25"/>
-      <c r="H200" s="25"/>
+      <c r="F200" s="22"/>
+      <c r="G200" s="22"/>
+      <c r="H200" s="22"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A201" s="26"/>
-      <c r="B201" s="17"/>
-      <c r="C201" s="25"/>
+      <c r="A201" s="23"/>
+      <c r="B201" s="14"/>
+      <c r="C201" s="22"/>
       <c r="D201" s="5"/>
       <c r="E201" s="4"/>
-      <c r="F201" s="25"/>
-      <c r="G201" s="25"/>
-      <c r="H201" s="25"/>
+      <c r="F201" s="22"/>
+      <c r="G201" s="22"/>
+      <c r="H201" s="22"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A202" s="26"/>
-      <c r="B202" s="17"/>
-      <c r="C202" s="25"/>
+      <c r="A202" s="23"/>
+      <c r="B202" s="14"/>
+      <c r="C202" s="22"/>
       <c r="D202" s="5"/>
       <c r="E202" s="4"/>
-      <c r="F202" s="25"/>
-      <c r="G202" s="25"/>
-      <c r="H202" s="25"/>
+      <c r="F202" s="22"/>
+      <c r="G202" s="22"/>
+      <c r="H202" s="22"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A203" s="26"/>
-      <c r="B203" s="17"/>
-      <c r="C203" s="25"/>
+      <c r="A203" s="23"/>
+      <c r="B203" s="14"/>
+      <c r="C203" s="22"/>
       <c r="D203" s="5"/>
       <c r="E203" s="4"/>
-      <c r="F203" s="25"/>
-      <c r="G203" s="25"/>
-      <c r="H203" s="25"/>
+      <c r="F203" s="22"/>
+      <c r="G203" s="22"/>
+      <c r="H203" s="22"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A204" s="26"/>
-      <c r="B204" s="17"/>
-      <c r="C204" s="25"/>
+      <c r="A204" s="23"/>
+      <c r="B204" s="14"/>
+      <c r="C204" s="22"/>
       <c r="D204" s="5"/>
       <c r="E204" s="4"/>
-      <c r="F204" s="25"/>
-      <c r="G204" s="25"/>
-      <c r="H204" s="25"/>
+      <c r="F204" s="22"/>
+      <c r="G204" s="22"/>
+      <c r="H204" s="22"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A205" s="26"/>
-      <c r="B205" s="17"/>
-      <c r="C205" s="25"/>
+      <c r="A205" s="23"/>
+      <c r="B205" s="14"/>
+      <c r="C205" s="22"/>
       <c r="D205" s="5"/>
       <c r="E205" s="4"/>
-      <c r="F205" s="25"/>
-      <c r="G205" s="25"/>
-      <c r="H205" s="25"/>
+      <c r="F205" s="22"/>
+      <c r="G205" s="22"/>
+      <c r="H205" s="22"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A206" s="26"/>
-      <c r="B206" s="17"/>
-      <c r="C206" s="25"/>
+      <c r="A206" s="23"/>
+      <c r="B206" s="14"/>
+      <c r="C206" s="22"/>
       <c r="D206" s="5"/>
       <c r="E206" s="4"/>
-      <c r="F206" s="25"/>
-      <c r="G206" s="25"/>
-      <c r="H206" s="25"/>
+      <c r="F206" s="22"/>
+      <c r="G206" s="22"/>
+      <c r="H206" s="22"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A207" s="26"/>
-      <c r="B207" s="17"/>
-      <c r="C207" s="25"/>
+      <c r="A207" s="23"/>
+      <c r="B207" s="14"/>
+      <c r="C207" s="22"/>
       <c r="D207" s="5"/>
       <c r="E207" s="4"/>
-      <c r="F207" s="25"/>
-      <c r="G207" s="25"/>
-      <c r="H207" s="25"/>
+      <c r="F207" s="22"/>
+      <c r="G207" s="22"/>
+      <c r="H207" s="22"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A208" s="26"/>
-      <c r="B208" s="17"/>
-      <c r="C208" s="25"/>
+      <c r="A208" s="23"/>
+      <c r="B208" s="14"/>
+      <c r="C208" s="22"/>
       <c r="D208" s="5"/>
       <c r="E208" s="4"/>
-      <c r="F208" s="25"/>
-      <c r="G208" s="25"/>
-      <c r="H208" s="25"/>
+      <c r="F208" s="22"/>
+      <c r="G208" s="22"/>
+      <c r="H208" s="22"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A209" s="26"/>
-      <c r="B209" s="17"/>
-      <c r="C209" s="25"/>
+      <c r="A209" s="23"/>
+      <c r="B209" s="14"/>
+      <c r="C209" s="22"/>
       <c r="D209" s="5"/>
       <c r="E209" s="4"/>
-      <c r="F209" s="25"/>
-      <c r="G209" s="25"/>
-      <c r="H209" s="25"/>
+      <c r="F209" s="22"/>
+      <c r="G209" s="22"/>
+      <c r="H209" s="22"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A210" s="26"/>
-      <c r="B210" s="17"/>
-      <c r="C210" s="25"/>
+      <c r="A210" s="23"/>
+      <c r="B210" s="14"/>
+      <c r="C210" s="22"/>
       <c r="D210" s="5"/>
       <c r="E210" s="4"/>
-      <c r="F210" s="25"/>
-      <c r="G210" s="25"/>
-      <c r="H210" s="25"/>
+      <c r="F210" s="22"/>
+      <c r="G210" s="22"/>
+      <c r="H210" s="22"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A211" s="26"/>
-      <c r="B211" s="17"/>
-      <c r="C211" s="25"/>
+      <c r="A211" s="23"/>
+      <c r="B211" s="14"/>
+      <c r="C211" s="22"/>
       <c r="D211" s="5"/>
       <c r="E211" s="4"/>
-      <c r="F211" s="25"/>
-      <c r="G211" s="25"/>
-      <c r="H211" s="25"/>
+      <c r="F211" s="22"/>
+      <c r="G211" s="22"/>
+      <c r="H211" s="22"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A212" s="26"/>
-      <c r="B212" s="17"/>
-      <c r="C212" s="25"/>
+      <c r="A212" s="23"/>
+      <c r="B212" s="14"/>
+      <c r="C212" s="22"/>
       <c r="D212" s="5"/>
       <c r="E212" s="4"/>
-      <c r="F212" s="25"/>
-      <c r="G212" s="25"/>
-      <c r="H212" s="25"/>
+      <c r="F212" s="22"/>
+      <c r="G212" s="22"/>
+      <c r="H212" s="22"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A213" s="26"/>
-      <c r="B213" s="17"/>
-      <c r="C213" s="25"/>
+      <c r="A213" s="23"/>
+      <c r="B213" s="14"/>
+      <c r="C213" s="22"/>
       <c r="D213" s="5"/>
       <c r="E213" s="4"/>
-      <c r="F213" s="25"/>
-      <c r="G213" s="25"/>
-      <c r="H213" s="25"/>
+      <c r="F213" s="22"/>
+      <c r="G213" s="22"/>
+      <c r="H213" s="22"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A214" s="26"/>
-      <c r="B214" s="17"/>
-      <c r="C214" s="25"/>
+      <c r="A214" s="23"/>
+      <c r="B214" s="14"/>
+      <c r="C214" s="22"/>
       <c r="D214" s="5"/>
       <c r="E214" s="4"/>
-      <c r="F214" s="25"/>
-      <c r="G214" s="25"/>
-      <c r="H214" s="25"/>
+      <c r="F214" s="22"/>
+      <c r="G214" s="22"/>
+      <c r="H214" s="22"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A215" s="26"/>
-      <c r="B215" s="17"/>
-      <c r="C215" s="25"/>
+      <c r="A215" s="23"/>
+      <c r="B215" s="14"/>
+      <c r="C215" s="22"/>
       <c r="D215" s="5"/>
       <c r="E215" s="4"/>
-      <c r="F215" s="25"/>
-      <c r="G215" s="25"/>
-      <c r="H215" s="25"/>
+      <c r="F215" s="22"/>
+      <c r="G215" s="22"/>
+      <c r="H215" s="22"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A216" s="26"/>
-      <c r="B216" s="17"/>
-      <c r="C216" s="25"/>
+      <c r="A216" s="23"/>
+      <c r="B216" s="14"/>
+      <c r="C216" s="22"/>
       <c r="D216" s="5"/>
       <c r="E216" s="4"/>
-      <c r="F216" s="25"/>
-      <c r="G216" s="25"/>
-      <c r="H216" s="25"/>
+      <c r="F216" s="22"/>
+      <c r="G216" s="22"/>
+      <c r="H216" s="22"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A217" s="26"/>
-      <c r="B217" s="17"/>
-      <c r="C217" s="25"/>
+      <c r="A217" s="23"/>
+      <c r="B217" s="14"/>
+      <c r="C217" s="22"/>
       <c r="D217" s="5"/>
       <c r="E217" s="4"/>
-      <c r="F217" s="25"/>
-      <c r="G217" s="25"/>
-      <c r="H217" s="25"/>
+      <c r="F217" s="22"/>
+      <c r="G217" s="22"/>
+      <c r="H217" s="22"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A218" s="26"/>
-      <c r="B218" s="17"/>
-      <c r="C218" s="25"/>
+      <c r="A218" s="23"/>
+      <c r="B218" s="14"/>
+      <c r="C218" s="22"/>
       <c r="D218" s="5"/>
       <c r="E218" s="4"/>
-      <c r="F218" s="25"/>
-      <c r="G218" s="25"/>
-      <c r="H218" s="25"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A219" s="26"/>
-      <c r="B219" s="17"/>
-      <c r="C219" s="25"/>
-      <c r="D219" s="5"/>
-      <c r="E219" s="4"/>
-      <c r="F219" s="25"/>
-      <c r="G219" s="25"/>
-      <c r="H219" s="25"/>
+      <c r="F218" s="22"/>
+      <c r="G218" s="22"/>
+      <c r="H218" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A14:H14" xr:uid="{CAD90282-B97D-5146-B7BE-654DE6B03D9F}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1" xr:uid="{ADAF2BA5-115C-CD41-86DF-CF1BEAB3DA4A}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{A19F9335-2422-3B49-8E1B-1A14B71DEAE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2C57A5-F437-7343-A58A-A10850CBBA57}">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="60.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="80.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F1" t="s">
+        <v>503</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
+        <v>504</v>
+      </c>
+      <c r="J1" t="s">
+        <v>505</v>
+      </c>
+      <c r="K1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F2" t="s">
+        <v>508</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>509</v>
+      </c>
+      <c r="J2" t="s">
+        <v>510</v>
+      </c>
+      <c r="K2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" t="s">
+        <v>512</v>
+      </c>
+      <c r="F3" t="s">
+        <v>513</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>514</v>
+      </c>
+      <c r="J3" t="s">
+        <v>515</v>
+      </c>
+      <c r="K3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" t="s">
+        <v>517</v>
+      </c>
+      <c r="F4" t="s">
+        <v>518</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>519</v>
+      </c>
+      <c r="J4" t="s">
+        <v>520</v>
+      </c>
+      <c r="K4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" t="s">
+        <v>522</v>
+      </c>
+      <c r="F5" t="s">
+        <v>523</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>524</v>
+      </c>
+      <c r="J5" t="s">
+        <v>525</v>
+      </c>
+      <c r="K5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" t="s">
+        <v>527</v>
+      </c>
+      <c r="F6" t="s">
+        <v>528</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>529</v>
+      </c>
+      <c r="J6" t="s">
+        <v>530</v>
+      </c>
+      <c r="K6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F7" t="s">
+        <v>533</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" t="s">
+        <v>534</v>
+      </c>
+      <c r="J7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K7" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" t="s">
+        <v>537</v>
+      </c>
+      <c r="F8" t="s">
+        <v>538</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>539</v>
+      </c>
+      <c r="J8" t="s">
+        <v>540</v>
+      </c>
+      <c r="K8" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" t="s">
+        <v>542</v>
+      </c>
+      <c r="F9" t="s">
+        <v>543</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>544</v>
+      </c>
+      <c r="J9" t="s">
+        <v>545</v>
+      </c>
+      <c r="K9" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" t="s">
+        <v>547</v>
+      </c>
+      <c r="F10" t="s">
+        <v>548</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>549</v>
+      </c>
+      <c r="J10" t="s">
+        <v>550</v>
+      </c>
+      <c r="K10" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" t="s">
+        <v>552</v>
+      </c>
+      <c r="F11" t="s">
+        <v>553</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>554</v>
+      </c>
+      <c r="J11" t="s">
+        <v>555</v>
+      </c>
+      <c r="K11" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" t="s">
+        <v>557</v>
+      </c>
+      <c r="F12" t="s">
+        <v>558</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" t="s">
+        <v>559</v>
+      </c>
+      <c r="J12" t="s">
+        <v>560</v>
+      </c>
+      <c r="K12" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" t="s">
+        <v>562</v>
+      </c>
+      <c r="F13" t="s">
+        <v>563</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>564</v>
+      </c>
+      <c r="J13" t="s">
+        <v>565</v>
+      </c>
+      <c r="K13" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" t="s">
+        <v>567</v>
+      </c>
+      <c r="F14" t="s">
+        <v>568</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" t="s">
+        <v>569</v>
+      </c>
+      <c r="J14" t="s">
+        <v>570</v>
+      </c>
+      <c r="K14" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" t="s">
+        <v>572</v>
+      </c>
+      <c r="F15" t="s">
+        <v>573</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>574</v>
+      </c>
+      <c r="J15" t="s">
+        <v>575</v>
+      </c>
+      <c r="K15" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" t="s">
+        <v>577</v>
+      </c>
+      <c r="F16" t="s">
+        <v>578</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" t="s">
+        <v>579</v>
+      </c>
+      <c r="J16" t="s">
+        <v>535</v>
+      </c>
+      <c r="K16" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" t="s">
+        <v>581</v>
+      </c>
+      <c r="F17" t="s">
+        <v>582</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>583</v>
+      </c>
+      <c r="J17" t="s">
+        <v>584</v>
+      </c>
+      <c r="K17" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" t="s">
+        <v>586</v>
+      </c>
+      <c r="F18" t="s">
+        <v>587</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" t="s">
+        <v>588</v>
+      </c>
+      <c r="J18" t="s">
+        <v>589</v>
+      </c>
+      <c r="K18" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" t="s">
+        <v>591</v>
+      </c>
+      <c r="F19" t="s">
+        <v>592</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" t="s">
+        <v>593</v>
+      </c>
+      <c r="J19" t="s">
+        <v>594</v>
+      </c>
+      <c r="K19" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" t="s">
+        <v>596</v>
+      </c>
+      <c r="F20" t="s">
+        <v>597</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>598</v>
+      </c>
+      <c r="J20" t="s">
+        <v>599</v>
+      </c>
+      <c r="K20" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" t="s">
+        <v>601</v>
+      </c>
+      <c r="F21" t="s">
+        <v>602</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" t="s">
+        <v>603</v>
+      </c>
+      <c r="J21" t="s">
+        <v>604</v>
+      </c>
+      <c r="K21" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" t="s">
+        <v>606</v>
+      </c>
+      <c r="F22" t="s">
+        <v>607</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" t="s">
+        <v>608</v>
+      </c>
+      <c r="J22" t="s">
+        <v>609</v>
+      </c>
+      <c r="K22" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" t="s">
+        <v>611</v>
+      </c>
+      <c r="F23" t="s">
+        <v>612</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" t="s">
+        <v>613</v>
+      </c>
+      <c r="J23" t="s">
+        <v>614</v>
+      </c>
+      <c r="K23" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" t="s">
+        <v>616</v>
+      </c>
+      <c r="F24" t="s">
+        <v>617</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" t="s">
+        <v>618</v>
+      </c>
+      <c r="J24" t="s">
+        <v>619</v>
+      </c>
+      <c r="K24" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" t="s">
+        <v>621</v>
+      </c>
+      <c r="F25" t="s">
+        <v>622</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>623</v>
+      </c>
+      <c r="J25" t="s">
+        <v>624</v>
+      </c>
+      <c r="K25" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" t="s">
+        <v>626</v>
+      </c>
+      <c r="F26" t="s">
+        <v>627</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H26" t="s">
+        <v>126</v>
+      </c>
+      <c r="I26" t="s">
+        <v>628</v>
+      </c>
+      <c r="J26" t="s">
+        <v>555</v>
+      </c>
+      <c r="K26" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" t="s">
+        <v>630</v>
+      </c>
+      <c r="F27" t="s">
+        <v>631</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>632</v>
+      </c>
+      <c r="J27" t="s">
+        <v>633</v>
+      </c>
+      <c r="K27" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" t="s">
+        <v>635</v>
+      </c>
+      <c r="F28" t="s">
+        <v>636</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H28" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" t="s">
+        <v>637</v>
+      </c>
+      <c r="J28" t="s">
+        <v>638</v>
+      </c>
+      <c r="K28" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" t="s">
+        <v>640</v>
+      </c>
+      <c r="F29" t="s">
+        <v>641</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" t="s">
+        <v>642</v>
+      </c>
+      <c r="J29" t="s">
+        <v>643</v>
+      </c>
+      <c r="K29" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>645</v>
+      </c>
+      <c r="F30" t="s">
+        <v>646</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>647</v>
+      </c>
+      <c r="J30" t="s">
+        <v>599</v>
+      </c>
+      <c r="K30" t="s">
+        <v>648</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>